--- a/COM-dFBA/Scripts/paramTables.xlsx
+++ b/COM-dFBA/Scripts/paramTables.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zorrilla\Desktop\iGEM simulation environment\Scripts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF5CEC93-C180-495F-B29A-DD1395EFFAC5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3645" windowHeight="345" activeTab="2" xr2:uid="{5BB18B0B-3499-4B48-8CA4-59B1E24E065F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20560"/>
   </bookViews>
   <sheets>
     <sheet name="Vmax" sheetId="1" r:id="rId1"/>
     <sheet name="Ks" sheetId="3" r:id="rId2"/>
     <sheet name="Initial &amp; Flow Concentrations" sheetId="4" r:id="rId3"/>
     <sheet name="Other Parameters" sheetId="6" r:id="rId4"/>
+    <sheet name="conc. calc" sheetId="7" r:id="rId5"/>
+    <sheet name="Flow rate calculation" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="193">
   <si>
     <t>sbo</t>
   </si>
@@ -279,17 +278,346 @@
     <t>x(12)</t>
   </si>
   <si>
-    <t>sbo-cancer long flows</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Alanine       </t>
+  </si>
+  <si>
+    <t>g/day</t>
+  </si>
+  <si>
+    <t>g/h</t>
+  </si>
+  <si>
+    <t>g/mol</t>
+  </si>
+  <si>
+    <t>mM</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Arginine      </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Asparagine    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Aspartic Acid </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cysteine      </t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Glutamine     </t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Glutamic Acid </t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Glycine       </t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Histidine     </t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Isoleucine    </t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Leucine       </t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lysine        </t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Methionine    </t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Phenylalanine </t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Proline       </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Serine        </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Threonine     </t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tryptophan    </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tyrosine      </t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Valine        </t>
+  </si>
+  <si>
+    <t>daily intake (https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3249386/)</t>
+  </si>
+  <si>
+    <t>Volume calculations</t>
+  </si>
+  <si>
+    <t>Saliva</t>
+  </si>
+  <si>
+    <t>Stomach</t>
+  </si>
+  <si>
+    <t>Pancreas</t>
+  </si>
+  <si>
+    <t>Bile</t>
+  </si>
+  <si>
+    <t>Small Intestine</t>
+  </si>
+  <si>
+    <t>Large Intestine</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ingested</t>
+  </si>
+  <si>
+    <t>duodenum</t>
+  </si>
+  <si>
+    <t>L/day</t>
+  </si>
+  <si>
+    <t>mL/day</t>
+  </si>
+  <si>
+    <t>L/h</t>
+  </si>
+  <si>
+    <t>cumulative</t>
+  </si>
+  <si>
+    <t>inflow:</t>
+  </si>
+  <si>
+    <t>Outflow:</t>
+  </si>
+  <si>
+    <t>same to enable CSTR assumption</t>
+  </si>
+  <si>
+    <t>source:</t>
+  </si>
+  <si>
+    <t>https://en.wikibooks.org/wiki/Medical_Physiology/Gastrointestinal_Physiology/Secretions</t>
+  </si>
+  <si>
+    <t>small intestine removes 90% of fluid https://www.ncbi.nlm.nih.gov/books/NBK507857/</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>approximate from source: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4285997/</t>
+  </si>
+  <si>
+    <t>transit time colon:</t>
+  </si>
+  <si>
+    <t>Volume colon content:</t>
+  </si>
+  <si>
+    <t>round up to:</t>
+  </si>
+  <si>
+    <t>amount of protein entering the large column:</t>
+  </si>
+  <si>
+    <t>assume same amino acids distribution as dietary intake (dietary intake is only 50% of these 12g)</t>
+  </si>
+  <si>
+    <t>g[aa]/g[p]</t>
+  </si>
+  <si>
+    <t>g[p]/day</t>
+  </si>
+  <si>
+    <t>g[aa]/day</t>
+  </si>
+  <si>
+    <t>flow rate=</t>
+  </si>
+  <si>
+    <t>g/L</t>
+  </si>
+  <si>
+    <t>total amount of protein</t>
+  </si>
+  <si>
+    <t>(sum of data)</t>
+  </si>
+  <si>
+    <t>OLD:</t>
+  </si>
+  <si>
+    <t>https://www.efsa.europa.eu/sites/default/files/consultation/150310b.pdf</t>
+  </si>
+  <si>
+    <t>http://www.who.int/water_sanitation_health/dwq/ammonia.pdf</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Carbohydrates (Glucose)</t>
+  </si>
+  <si>
+    <t>http://jmm.microbiologyresearch.org/content/journal/jmm/10.1099/00222615-13-1-45#tab2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mass fraction of fermented carbohydrates (Resistant starch and Fermentable fiber) :
+</t>
+  </si>
+  <si>
+    <t>Biomass calculations</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22968445?dopt=Abstract</t>
+  </si>
+  <si>
+    <t>cells</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>kg/L</t>
+  </si>
+  <si>
+    <t>L/cell</t>
+  </si>
+  <si>
+    <t>cell volume</t>
+  </si>
+  <si>
+    <t>(1400 µm^3)</t>
+  </si>
+  <si>
+    <t>source assumed same as enterocyte cell count: https://www.tandfonline.com/doi/full/10.3109/03014460.2013.807878</t>
+  </si>
+  <si>
+    <t>http://book.bionumbers.org/what-is-the-density-of-cells/</t>
+  </si>
+  <si>
+    <t>gdw/gww</t>
+  </si>
+  <si>
+    <t>gww</t>
+  </si>
+  <si>
+    <t>gdw</t>
+  </si>
+  <si>
+    <t>Volume=</t>
+  </si>
+  <si>
+    <t>gdw/L</t>
+  </si>
+  <si>
+    <t>total microflora</t>
+  </si>
+  <si>
+    <t>frac microbiota</t>
+  </si>
+  <si>
+    <t>frac relevant microbiota</t>
+  </si>
+  <si>
+    <t>dry weight prokaryot</t>
+  </si>
+  <si>
+    <t>dry weight eukaryot</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/scitable/topicpage/what-is-a-cell-14023083</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4991899/</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/ncomms2266.pdf</t>
+  </si>
+  <si>
+    <t>kgdw</t>
+  </si>
+  <si>
+    <t>kgww</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +636,70 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10.5"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -317,7 +709,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -325,24 +717,360 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="27"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="138">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,7 +1129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -453,7 +1181,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -647,26 +1375,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B78F5ED-0798-4D77-8F9F-1DE91C850719}">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="1" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1">
         <v>0</v>
       </c>
@@ -691,8 +1419,44 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>0</v>
       </c>
@@ -717,8 +1481,44 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>0</v>
       </c>
@@ -743,8 +1543,44 @@
       <c r="H3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>0</v>
       </c>
@@ -769,8 +1605,44 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>0</v>
       </c>
@@ -795,8 +1667,44 @@
       <c r="H5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>0</v>
       </c>
@@ -821,18 +1729,54 @@
       <c r="H6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>0.89922067541464101</v>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1">
+        <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>0.89922067541464101</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
@@ -847,8 +1791,44 @@
       <c r="H7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>8.9922067541464106</v>
+      </c>
+      <c r="L7" s="1">
+        <v>8.9922067541464106</v>
+      </c>
+      <c r="M7" s="1">
+        <v>8.9922067541464106</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.04895</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.04895</v>
+      </c>
+      <c r="R7" s="1">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1">
+        <v>10</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>10</v>
+      </c>
+      <c r="W7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -858,8 +1838,8 @@
       <c r="C8">
         <v>1000</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
+      <c r="D8">
+        <v>1000</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -873,8 +1853,44 @@
       <c r="H8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8">
+        <v>1000</v>
+      </c>
+      <c r="N8">
+        <v>1000</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="P8">
+        <v>1000</v>
+      </c>
+      <c r="R8">
+        <v>1000</v>
+      </c>
+      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="T8">
+        <v>1000</v>
+      </c>
+      <c r="U8">
+        <v>1000</v>
+      </c>
+      <c r="V8">
+        <v>1000</v>
+      </c>
+      <c r="W8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>2.5</v>
       </c>
@@ -899,19 +1915,55 @@
       <c r="H9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>16.836734693877553</v>
+      </c>
+      <c r="P9">
+        <v>8.7585034013605458</v>
+      </c>
+      <c r="R9" s="1">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="B10">
-        <v>0.126</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
         <v>1.26</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>2.1999999999999999E-2</v>
@@ -925,8 +1977,44 @@
       <c r="H10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.126</v>
+      </c>
+      <c r="M10">
+        <v>0.126</v>
+      </c>
+      <c r="N10">
+        <v>0.126</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10" s="1">
+        <v>10</v>
+      </c>
+      <c r="W10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>0.623</v>
       </c>
@@ -937,7 +2025,7 @@
         <v>0.7</v>
       </c>
       <c r="D11">
-        <v>3.5920000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -951,19 +2039,56 @@
       <c r="H11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="L11">
+        <v>0.7</v>
+      </c>
+      <c r="M11">
+        <v>0.7</v>
+      </c>
+      <c r="N11">
+        <v>3.5920000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>0.2</v>
       </c>
-      <c r="B12">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="C12">
-        <v>0.20625000000000002</v>
+      <c r="B12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.20625000000000002</v>
+        <f>C12/10</f>
+        <v>0.02</v>
       </c>
       <c r="E12">
         <v>0.20625000000000002</v>
@@ -977,19 +2102,56 @@
       <c r="H12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P12">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>0.2</v>
       </c>
-      <c r="B13">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="C13">
-        <v>0.20625000000000002</v>
+      <c r="B13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>0.20625000000000002</v>
+        <f t="shared" ref="D13:D21" si="0">C13/10</f>
+        <v>0.02</v>
       </c>
       <c r="E13">
         <v>0.20625000000000002</v>
@@ -1003,19 +2165,56 @@
       <c r="H13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P13">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>0.2</v>
       </c>
-      <c r="B14">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="C14">
-        <v>0.20625000000000002</v>
+      <c r="B14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <v>0.20625000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="E14">
         <v>0.20625000000000002</v>
@@ -1029,19 +2228,56 @@
       <c r="H14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P14">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>0.3</v>
       </c>
       <c r="B15">
-        <v>0.20625000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C15">
-        <v>0.20625000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
-        <v>0.20625000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.03</v>
       </c>
       <c r="E15">
         <v>0.20625000000000002</v>
@@ -1055,19 +2291,56 @@
       <c r="H15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+      <c r="L15">
+        <v>0.3</v>
+      </c>
+      <c r="M15">
+        <v>0.3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P15">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>0.56399999999999995</v>
       </c>
       <c r="B16">
-        <v>0.20625000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="C16">
-        <v>0.20625000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D16">
-        <v>0.20625000000000002</v>
+        <f t="shared" si="0"/>
+        <v>5.6399999999999992E-2</v>
       </c>
       <c r="E16">
         <v>0.20625000000000002</v>
@@ -1081,19 +2354,56 @@
       <c r="H16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="L16">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="M16">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P16">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>0.2</v>
       </c>
-      <c r="B17">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="C17">
-        <v>0.20625000000000002</v>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0.20625000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="E17">
         <v>0.20625000000000002</v>
@@ -1107,8 +2417,44 @@
       <c r="H17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P17">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>0.23599999999999999</v>
       </c>
@@ -1119,7 +2465,8 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="D18">
-        <v>0.23599999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="E18">
         <v>0.20625000000000002</v>
@@ -1133,8 +2480,44 @@
       <c r="H18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="L18">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P18">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>0.156</v>
       </c>
@@ -1145,7 +2528,8 @@
         <v>0.156</v>
       </c>
       <c r="D19">
-        <v>0.156</v>
+        <f t="shared" si="0"/>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E19">
         <v>0.20625000000000002</v>
@@ -1159,19 +2543,56 @@
       <c r="H19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0.156</v>
+      </c>
+      <c r="L19">
+        <v>0.156</v>
+      </c>
+      <c r="M19">
+        <v>0.156</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P19">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>0.63200000000000001</v>
       </c>
       <c r="B20">
-        <v>0.20625000000000002</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="C20">
-        <v>0.20625000000000002</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D20">
-        <v>0.20625000000000002</v>
+        <f t="shared" si="0"/>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="E20">
         <v>0.20625000000000002</v>
@@ -1185,19 +2606,56 @@
       <c r="H20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P20">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>0.38400000000000001</v>
       </c>
       <c r="B21">
-        <v>0.20625000000000002</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C21">
-        <v>0.20625000000000002</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D21">
-        <v>0.20625000000000002</v>
+        <f t="shared" si="0"/>
+        <v>3.8400000000000004E-2</v>
       </c>
       <c r="E21">
         <v>0.20625000000000002</v>
@@ -1211,8 +2669,44 @@
       <c r="H21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P21">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1237,8 +2731,44 @@
       <c r="H22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2.5</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1263,8 +2793,44 @@
       <c r="H23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>6.6</v>
+      </c>
+      <c r="N23" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>10</v>
+      </c>
+      <c r="U23" s="1">
+        <v>10</v>
+      </c>
+      <c r="V23" s="1">
+        <v>10</v>
+      </c>
+      <c r="W23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1289,8 +2855,44 @@
       <c r="H24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="P24">
+        <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1315,8 +2917,44 @@
       <c r="H25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>10</v>
+      </c>
+      <c r="W25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1341,8 +2979,44 @@
       <c r="H26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>6.6</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>10</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1367,25 +3041,61 @@
       <c r="H27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
         <v>10</v>
       </c>
-      <c r="B28" s="1">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
-        <v>10</v>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>72</v>
@@ -1393,8 +3103,44 @@
       <c r="H28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1419,8 +3165,44 @@
       <c r="H29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1445,8 +3227,44 @@
       <c r="H30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1471,8 +3289,44 @@
       <c r="H31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1497,8 +3351,44 @@
       <c r="H32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1518,26 +3408,141 @@
         <v>5</v>
       </c>
     </row>
+    <row r="36" spans="1:16">
+      <c r="K36" s="20"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
+      <c r="P36" s="22"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="K37" s="20"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+      <c r="P37" s="22"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="K38" s="20"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="P38" s="22"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="22"/>
+      <c r="P39" s="22"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="K40" s="20"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="22"/>
+      <c r="P40" s="22"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="K41" s="20"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="22"/>
+      <c r="P41" s="22"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="K42" s="20"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
+      <c r="P42" s="22"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="K43" s="20"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="22"/>
+      <c r="P43" s="22"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="K44" s="20"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="22"/>
+      <c r="P44" s="22"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="K45" s="20"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="22"/>
+      <c r="P45" s="22"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="K46" s="20"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="22"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="K47" s="20"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="22"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="K48" s="20"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="22"/>
+    </row>
+    <row r="49" spans="11:13">
+      <c r="K49" s="20"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="22"/>
+    </row>
+    <row r="50" spans="11:13">
+      <c r="K50" s="20"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+    </row>
+    <row r="51" spans="11:13">
+      <c r="K51" s="20"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="22"/>
+    </row>
+    <row r="52" spans="11:13">
+      <c r="K52" s="20"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="22"/>
+    </row>
+    <row r="53" spans="11:13">
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="22"/>
+    </row>
+    <row r="54" spans="11:13">
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+    </row>
+    <row r="55" spans="11:13">
+      <c r="K55" s="20"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A256C0EB-A98E-4A67-AA7F-D6B1D6307FBC}">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:P28"/>
+      <selection activeCell="K1" sqref="K1:P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="1" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1562,8 +3567,44 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0.5</v>
+      </c>
+      <c r="S1">
+        <v>0.5</v>
+      </c>
+      <c r="T1">
+        <v>0.5</v>
+      </c>
+      <c r="U1">
+        <v>0.5</v>
+      </c>
+      <c r="V1">
+        <v>0.5</v>
+      </c>
+      <c r="W1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1588,8 +3629,44 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <v>0.5</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+      <c r="V2">
+        <v>0.5</v>
+      </c>
+      <c r="W2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1614,8 +3691,44 @@
       <c r="H3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0.5</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1640,8 +3753,44 @@
       <c r="H4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1666,8 +3815,44 @@
       <c r="H5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1692,8 +3877,44 @@
       <c r="H6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>0.5</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>0.5</v>
+      </c>
+      <c r="V6">
+        <v>0.5</v>
+      </c>
+      <c r="W6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>3.1084171495814699E-2</v>
       </c>
@@ -1718,14 +3939,44 @@
       <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>0.31084171495814739</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.31084171495814739</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.31084171495814739</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+      <c r="T7">
+        <v>0.5</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>0.5</v>
+      </c>
+      <c r="W7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>1E-3</v>
       </c>
@@ -1750,8 +4001,44 @@
       <c r="H8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>1E-3</v>
+      </c>
+      <c r="L8">
+        <v>1E-3</v>
+      </c>
+      <c r="M8">
+        <v>1E-3</v>
+      </c>
+      <c r="N8">
+        <v>1E-3</v>
+      </c>
+      <c r="O8">
+        <v>1E-3</v>
+      </c>
+      <c r="P8">
+        <v>1E-3</v>
+      </c>
+      <c r="R8">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
+        <v>0.5</v>
+      </c>
+      <c r="T8">
+        <v>0.5</v>
+      </c>
+      <c r="U8">
+        <v>0.5</v>
+      </c>
+      <c r="V8">
+        <v>0.5</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1776,9 +4063,44 @@
       <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>0.157</v>
       </c>
@@ -1803,13 +4125,44 @@
       <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6.3176914313151117E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6.3176914313151117E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6.3176914313151117E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="R10">
+        <v>0.5</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="W10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1834,14 +4187,44 @@
       <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>0.5</v>
+      </c>
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>1.2199999999999999E-3</v>
       </c>
@@ -1866,13 +4249,44 @@
       <c r="H12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L12">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="M12">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.5</v>
+      </c>
+      <c r="S12">
+        <v>0.5</v>
+      </c>
+      <c r="T12">
+        <v>0.5</v>
+      </c>
+      <c r="U12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>0.5</v>
+      </c>
+      <c r="W12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>1.2199999999999999E-3</v>
       </c>
@@ -1897,13 +4311,44 @@
       <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L13">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="M13">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="R13">
+        <v>0.5</v>
+      </c>
+      <c r="S13">
+        <v>0.5</v>
+      </c>
+      <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="W13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>1.2199999999999999E-3</v>
       </c>
@@ -1928,13 +4373,44 @@
       <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L14">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="M14">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="T14">
+        <v>0.5</v>
+      </c>
+      <c r="U14">
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <v>0.5</v>
+      </c>
+      <c r="W14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>7.2000000000000005E-4</v>
       </c>
@@ -1959,13 +4435,44 @@
       <c r="H15" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="L15">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="M15">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="R15">
+        <v>0.5</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0.5</v>
+      </c>
+      <c r="W15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -1990,13 +4497,44 @@
       <c r="H16" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="R16">
+        <v>0.5</v>
+      </c>
+      <c r="S16">
+        <v>0.5</v>
+      </c>
+      <c r="T16">
+        <v>0.5</v>
+      </c>
+      <c r="U16">
+        <v>0.5</v>
+      </c>
+      <c r="V16">
+        <v>0.5</v>
+      </c>
+      <c r="W16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>1.2199999999999999E-3</v>
       </c>
@@ -2021,13 +4559,44 @@
       <c r="H17" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L17">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="M17">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="R17">
+        <v>0.5</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+      <c r="T17">
+        <v>0.5</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>0.5</v>
+      </c>
+      <c r="W17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>8.9999999999999998E-4</v>
       </c>
@@ -2052,10 +4621,44 @@
       <c r="H18" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="L18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M18">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="R18">
+        <v>0.5</v>
+      </c>
+      <c r="S18">
+        <v>0.5</v>
+      </c>
+      <c r="T18">
+        <v>0.5</v>
+      </c>
+      <c r="U18">
+        <v>0.5</v>
+      </c>
+      <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>2.2699999999999999E-3</v>
       </c>
@@ -2080,10 +4683,44 @@
       <c r="H19" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="L19">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="M19">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>0.5</v>
+      </c>
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
+        <v>0.5</v>
+      </c>
+      <c r="W19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>1.07E-3</v>
       </c>
@@ -2108,13 +4745,44 @@
       <c r="H20" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>1.07E-3</v>
+      </c>
+      <c r="L20">
+        <v>1.07E-3</v>
+      </c>
+      <c r="M20">
+        <v>1.07E-3</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>1.2199999999999999E-3</v>
       </c>
@@ -2139,13 +4807,44 @@
       <c r="H21" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L21">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="M21">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="R21">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2170,11 +4869,44 @@
       <c r="H22" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2199,10 +4931,44 @@
       <c r="H23" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.33890837612051583</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.33890837612051583</v>
+      </c>
+      <c r="O23">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P23">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R23">
+        <v>0.5</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2227,8 +4993,44 @@
       <c r="H24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="P24">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="R24">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2253,8 +5055,44 @@
       <c r="H25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="R25">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
+        <v>0.5</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
+      <c r="W25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2279,9 +5117,44 @@
       <c r="H26" t="s">
         <v>69</v>
       </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.33890837612051583</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0.5</v>
+      </c>
+      <c r="S26">
+        <v>0.5</v>
+      </c>
+      <c r="T26">
+        <v>0.5</v>
+      </c>
+      <c r="U26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>0.5</v>
+      </c>
+      <c r="W26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2306,16 +5179,49 @@
       <c r="H27" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.33890837612051583</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0.5</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27">
+        <v>0.5</v>
+      </c>
+      <c r="U27">
+        <v>0.5</v>
+      </c>
+      <c r="V27">
+        <v>0.5</v>
+      </c>
+      <c r="W27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2335,8 +5241,44 @@
       <c r="H28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0.5</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.5</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+      <c r="W28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2361,8 +5303,44 @@
       <c r="H29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0.5</v>
+      </c>
+      <c r="S29">
+        <v>0.5</v>
+      </c>
+      <c r="T29">
+        <v>0.5</v>
+      </c>
+      <c r="U29">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
+        <v>0.5</v>
+      </c>
+      <c r="W29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2387,8 +5365,44 @@
       <c r="H30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0.5</v>
+      </c>
+      <c r="S30">
+        <v>0.5</v>
+      </c>
+      <c r="T30">
+        <v>0.5</v>
+      </c>
+      <c r="U30">
+        <v>0.5</v>
+      </c>
+      <c r="V30">
+        <v>0.5</v>
+      </c>
+      <c r="W30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2413,8 +5427,44 @@
       <c r="H31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0.5</v>
+      </c>
+      <c r="S31">
+        <v>0.5</v>
+      </c>
+      <c r="T31">
+        <v>0.5</v>
+      </c>
+      <c r="U31">
+        <v>0.5</v>
+      </c>
+      <c r="V31">
+        <v>0.5</v>
+      </c>
+      <c r="W31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2439,8 +5489,44 @@
       <c r="H32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0.5</v>
+      </c>
+      <c r="S32">
+        <v>0.5</v>
+      </c>
+      <c r="T32">
+        <v>0.5</v>
+      </c>
+      <c r="U32">
+        <v>0.5</v>
+      </c>
+      <c r="V32">
+        <v>0.5</v>
+      </c>
+      <c r="W32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2462,29 +5548,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F9859B-AB82-43CC-AE65-360143EE87F0}">
-  <dimension ref="A1:O33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="1" spans="1:11">
+      <c r="A1" s="35">
+        <f>G1/10</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -2493,13 +5586,17 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="H1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G1" s="2">
+        <f>K1/10</f>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
-        <v>0</v>
+        <v>22.290196078431368</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2510,16 +5607,19 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9">
-        <v>32</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="F2" s="35">
+        <v>44.580392156862743</v>
+      </c>
+      <c r="G2" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>22.290196078431368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
-        <v>0</v>
+        <v>43.043137254901957</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2530,16 +5630,19 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="8">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="F3" s="35">
+        <v>86.086274509803928</v>
+      </c>
+      <c r="G3" s="2">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>43.043137254901957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2550,16 +5653,19 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="10">
+      <c r="F4" s="35">
         <v>2.666666666666667</v>
       </c>
-      <c r="I4" s="2">
+      <c r="G4" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
+      <c r="I4">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="35">
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2570,12 +5676,15 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="35">
         <v>0</v>
       </c>
       <c r="B6">
@@ -2587,15 +5696,21 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2">
+      <c r="F6" s="36">
+        <v>16.366</v>
+      </c>
+      <c r="G6" s="2">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>6.5464000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="17">
         <v>400</v>
       </c>
       <c r="C7" t="s">
@@ -2604,15 +5719,21 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>890.43199597385956</v>
+      </c>
+      <c r="G7" s="2">
+        <v>190.97</v>
+      </c>
+      <c r="I7">
+        <v>356.17279838954391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>1000</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="35">
         <v>6000</v>
       </c>
       <c r="C8" t="s">
@@ -2621,15 +5742,21 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="2">
-        <v>190.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F8" s="35">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="35">
         <v>0</v>
       </c>
       <c r="C9" t="s">
@@ -2638,16 +5765,22 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>600</v>
+      <c r="B10" s="17">
+        <v>400</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -2655,16 +5788,22 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F10" s="17">
+        <v>32.904642871432877</v>
+      </c>
+      <c r="G10" s="2">
+        <v>52.1</v>
+      </c>
+      <c r="I10">
+        <v>13.16185714857315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
-        <v>464.01515151515156</v>
+      <c r="B11" s="17">
+        <v>200</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -2672,15 +5811,21 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="2">
-        <v>52.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F11" s="17">
+        <v>464.01515151515156</v>
+      </c>
+      <c r="G11" s="2">
+        <v>21065</v>
+      </c>
+      <c r="I11">
+        <v>185.60606060606059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>4.4710000000000001</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="17">
         <v>14.727769753830806</v>
       </c>
       <c r="C12" t="s">
@@ -2689,16 +5834,24 @@
       <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="O12" s="2">
-        <v>21.065000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F12" s="17">
+        <v>14.727769753830806</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4.4710000000000001</v>
+      </c>
+      <c r="I12">
+        <v>5.8911079015323233</v>
+      </c>
+      <c r="K12" s="22">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>1.4079999999999999</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="35">
         <v>4.6376817793040894</v>
       </c>
       <c r="C13" t="s">
@@ -2707,17 +5860,24 @@
       <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="O13" s="2">
-        <f t="shared" ref="O13:O22" si="0">A12*10</f>
-        <v>44.71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F13" s="35">
+        <v>4.6376817793040894</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="I13">
+        <v>1.8550727117216357</v>
+      </c>
+      <c r="K13" s="22">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>3.4910000000000001</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="17">
         <v>11.499563351906998</v>
       </c>
       <c r="C14" t="s">
@@ -2726,17 +5886,24 @@
       <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="O14" s="2">
-        <f t="shared" si="0"/>
-        <v>14.079999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="17">
+        <v>11.499563351906998</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.4910000000000001</v>
+      </c>
+      <c r="I14">
+        <v>4.5998253407627994</v>
+      </c>
+      <c r="K14" s="22">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>2.2120000000000002</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="17">
         <v>7.285514971851204</v>
       </c>
       <c r="C15" t="s">
@@ -2745,17 +5912,24 @@
       <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="O15" s="2">
-        <f t="shared" si="0"/>
-        <v>34.910000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="17">
+        <v>7.285514971851204</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="I15">
+        <v>2.9142059887404823</v>
+      </c>
+      <c r="K15" s="22">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>3.4609999999999999</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="17">
         <v>11.39965928698323</v>
       </c>
       <c r="C16" t="s">
@@ -2764,17 +5938,24 @@
       <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="O16" s="2">
-        <f t="shared" si="0"/>
-        <v>22.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="17">
+        <v>11.39965928698323</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3.4609999999999999</v>
+      </c>
+      <c r="I16">
+        <v>4.5598637147932921</v>
+      </c>
+      <c r="K16" s="22">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>2.7629999999999999</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="17">
         <v>9.1008015542839527</v>
       </c>
       <c r="C17" t="s">
@@ -2783,17 +5964,24 @@
       <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="O17" s="2">
-        <f t="shared" si="0"/>
-        <v>34.61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="17">
+        <v>9.1008015542839527</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="I17">
+        <v>3.6403206217135811</v>
+      </c>
+      <c r="K17" s="22">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>0.47199999999999998</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="17">
         <v>1.5540619819742105</v>
       </c>
       <c r="C18" t="s">
@@ -2802,17 +5990,24 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="O18" s="2">
-        <f t="shared" si="0"/>
-        <v>27.63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F18" s="17">
+        <v>1.5540619819742105</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.6216247927896843</v>
+      </c>
+      <c r="K18" s="22">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>1.2589999999999999</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="17">
         <v>4.1487143163816773</v>
       </c>
       <c r="C19" t="s">
@@ -2821,17 +6016,24 @@
       <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="O19" s="2">
-        <f t="shared" si="0"/>
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F19" s="17">
+        <v>4.1487143163816773</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="I19">
+        <v>1.6594857265526712</v>
+      </c>
+      <c r="K19" s="22">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>5.0979999999999999</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="17">
         <v>16.793017232500791</v>
       </c>
       <c r="C20" t="s">
@@ -2840,20 +6042,26 @@
       <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="K20" s="3"/>
+      <c r="F20" s="17">
+        <v>16.793017232500791</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5.0979999999999999</v>
+      </c>
+      <c r="I20">
+        <v>6.7172068930003164</v>
+      </c>
+      <c r="K20" s="22">
+        <v>11.13</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="3"/>
-      <c r="O20" s="2">
-        <f t="shared" si="0"/>
-        <v>12.59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>2.734</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="35">
         <v>9.0073815683599125</v>
       </c>
       <c r="C21" t="s">
@@ -2862,17 +6070,24 @@
       <c r="D21" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="K21" s="3"/>
+      <c r="F21" s="35">
+        <v>9.0073815683599125</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.734</v>
+      </c>
+      <c r="I21">
+        <v>3.6029526273439654</v>
+      </c>
+      <c r="K21" s="22">
+        <v>5.97</v>
+      </c>
       <c r="L21" s="2"/>
-      <c r="O21" s="2">
-        <f t="shared" si="0"/>
-        <v>50.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="35">
+        <f t="shared" ref="A22:A32" si="0">B22/10</f>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2883,13 +6098,15 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="2">
+      <c r="G22" s="2"/>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="35">
         <f t="shared" si="0"/>
-        <v>27.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
         <v>0</v>
       </c>
       <c r="B23">
@@ -2902,9 +6119,13 @@
         <v>62</v>
       </c>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24">
@@ -2917,9 +6138,13 @@
         <v>65</v>
       </c>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25">
@@ -2932,9 +6157,13 @@
         <v>67</v>
       </c>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26">
@@ -2947,9 +6176,13 @@
         <v>69</v>
       </c>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27">
@@ -2962,9 +6195,13 @@
         <v>71</v>
       </c>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28">
@@ -2977,10 +6214,14 @@
         <v>73</v>
       </c>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2991,9 +6232,14 @@
       <c r="D29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="G29" s="2"/>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30">
@@ -3006,9 +6252,13 @@
         <v>77</v>
       </c>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31">
@@ -3021,9 +6271,13 @@
         <v>79</v>
       </c>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B32">
@@ -3036,8 +6290,11 @@
         <v>81</v>
       </c>
       <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -3047,27 +6304,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C03891-79FA-45CB-ABD2-AD02C29D2916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2">
-        <v>7.7999999999999996E-3</v>
+        <v>0.05</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
@@ -3080,9 +6342,9 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3095,7 +6357,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -3110,9 +6372,9 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -3127,6 +6389,2115 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="C1" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="P1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4.04</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2/H$23</f>
+        <v>5.077928607340372E-2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="19">
+        <f>E2*$H$24/24</f>
+        <v>0.17984330484330482</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="19">
+        <f>G2/$H$27</f>
+        <v>3.5968660968660964</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2">
+        <v>89.09</v>
+      </c>
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="29">
+        <f>I2/K2*1000</f>
+        <v>40.373398775015112</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="22">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4.34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E21" si="0">C3/H$23</f>
+        <v>5.4550025138260426E-2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="19">
+        <f t="shared" ref="G3:G21" si="1">E3*$H$24/24</f>
+        <v>0.19319800569800569</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" ref="I3:I21" si="2">G3/$H$27</f>
+        <v>3.8639601139601134</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3">
+        <v>174.2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="29">
+        <f t="shared" ref="M3:M34" si="3">I3/K3*1000</f>
+        <v>22.18117172192947</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="22">
+        <v>5.19</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4565108094519861E-2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="19">
+        <f t="shared" si="1"/>
+        <v>0.12241809116809117</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="2"/>
+        <v>2.4483618233618234</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4">
+        <v>132.12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="29">
+        <f t="shared" si="3"/>
+        <v>18.531348950664725</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="22">
+        <v>4.34</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.62</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5500251382604322E-2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" si="1"/>
+        <v>0.16114672364672364</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="2"/>
+        <v>3.2229344729344724</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5">
+        <v>133.1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="29">
+        <f t="shared" si="3"/>
+        <v>24.214383718515947</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="22">
+        <v>5.67</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>1.6591251885369532E-2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="1"/>
+        <v>5.8760683760683767E-2</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="2"/>
+        <v>1.1752136752136753</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6">
+        <v>121.16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="29">
+        <f t="shared" si="3"/>
+        <v>9.6996836844971561</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="22">
+        <v>2.27</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6.85</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>8.6098541980894921E-2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" si="1"/>
+        <v>0.30493233618233617</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="2"/>
+        <v>6.0986467236467234</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7">
+        <v>146.15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="29">
+        <f t="shared" si="3"/>
+        <v>41.728680969187295</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="22">
+        <v>9.76</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>9.1377576671694313E-2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="1"/>
+        <v>0.32362891737891736</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="2"/>
+        <v>6.4725783475783469</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8">
+        <v>147.13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="29">
+        <f t="shared" si="3"/>
+        <v>43.992240519121502</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="22">
+        <v>10.29</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3.23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>4.05982905982906E-2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="1"/>
+        <v>0.14378561253561253</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="2"/>
+        <v>2.8757122507122506</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="29">
+        <f t="shared" si="3"/>
+        <v>38.307076737874659</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="22">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>2.8783308195072899E-2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="19">
+        <f t="shared" si="1"/>
+        <v>0.10194088319088318</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="2"/>
+        <v>2.0388176638176634</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10">
+        <v>155.16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="29">
+        <f t="shared" si="3"/>
+        <v>13.140098374694919</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="22">
+        <v>3.07</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3.76</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>4.7259929612870788E-2</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="19">
+        <f t="shared" si="1"/>
+        <v>0.16737891737891739</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="2"/>
+        <v>3.3475783475783474</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11">
+        <v>131.16999999999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="29">
+        <f t="shared" si="3"/>
+        <v>25.520914443686419</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" s="22">
+        <v>5.97</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7.01</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>8.8109602815485161E-2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="1"/>
+        <v>0.31205484330484329</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="2"/>
+        <v>6.2410968660968651</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12">
+        <v>131.16999999999999</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="29">
+        <f t="shared" si="3"/>
+        <v>47.580215492085586</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="22">
+        <v>11.13</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5.35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="9">
+        <f>C13/H$23</f>
+        <v>6.724484665661136E-2</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="1"/>
+        <v>0.23815883190883191</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="2"/>
+        <v>4.7631766381766383</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13">
+        <v>146.19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="29">
+        <f t="shared" si="3"/>
+        <v>32.582096163736495</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="22">
+        <v>7.62</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4761186525892407E-2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="1"/>
+        <v>8.7695868945868949E-2</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="2"/>
+        <v>1.753917378917379</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14">
+        <v>149.21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="29">
+        <f t="shared" si="3"/>
+        <v>11.754690563081422</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="R14" s="22">
+        <v>2.75</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3.83</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8139768728004025E-2</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="19">
+        <f t="shared" si="1"/>
+        <v>0.17049501424501426</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="2"/>
+        <v>3.4099002849002851</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15">
+        <v>165.19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="29">
+        <f t="shared" si="3"/>
+        <v>20.642292420245081</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" s="22">
+        <v>4.83</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5.59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>7.0261437908496732E-2</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="1"/>
+        <v>0.24884259259259259</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="2"/>
+        <v>4.9768518518518512</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16">
+        <v>115.13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="29">
+        <f t="shared" si="3"/>
+        <v>43.228106070110762</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="R16" s="22">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4.53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>5.6938159879336349E-2</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="1"/>
+        <v>0.20165598290598288</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="2"/>
+        <v>4.0331196581196576</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17">
+        <v>105.09</v>
+      </c>
+      <c r="L17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="29">
+        <f t="shared" si="3"/>
+        <v>38.377768180794149</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="22">
+        <v>8.98</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3.45</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>4.3363499245852186E-2</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="1"/>
+        <v>0.15357905982905981</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="2"/>
+        <v>3.0715811965811959</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18">
+        <v>119.12</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="29">
+        <f t="shared" si="3"/>
+        <v>25.78560440380453</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" s="22">
+        <v>6.03</v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.01</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>1.269482151835093E-2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="1"/>
+        <v>4.4960826210826206E-2</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="2"/>
+        <v>0.89921652421652409</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19">
+        <v>204.22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="29">
+        <f>I19/K19*1000</f>
+        <v>4.4031756155935957</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="22">
+        <v>1.03</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8964303670186023E-2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1379985754985755</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="2"/>
+        <v>2.7599715099715096</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20">
+        <v>181.19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="29">
+        <f t="shared" si="3"/>
+        <v>15.232471493854572</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="22">
+        <v>3.56</v>
+      </c>
+      <c r="S20" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4.25</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3418803418803416E-2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="1"/>
+        <v>0.18919159544159544</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="2"/>
+        <v>3.7838319088319086</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21">
+        <v>117.15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="29">
+        <f t="shared" si="3"/>
+        <v>32.299034646452483</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="R21" s="22">
+        <v>7.56</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="M22" s="29"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23">
+        <f>SUM(C2:C21)</f>
+        <v>79.56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="B24" s="5"/>
+      <c r="D24" s="18"/>
+      <c r="G24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="B25" s="5"/>
+      <c r="D25" s="18"/>
+      <c r="G25" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="N25" s="16"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="B26" s="5"/>
+      <c r="D26" s="18"/>
+      <c r="G26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26">
+        <v>1.5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="16"/>
+      <c r="Y26" s="8"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="B27" s="5"/>
+      <c r="D27" s="18"/>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27">
+        <v>0.05</v>
+      </c>
+      <c r="I27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="29"/>
+      <c r="N27" s="16"/>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="B28" s="5"/>
+      <c r="D28" s="18"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="16"/>
+      <c r="Y28" s="8"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="B29" s="5"/>
+      <c r="D29" s="18"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="16"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="B30" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="16"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="1:25" ht="15">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31">
+        <f>C31</f>
+        <v>1.5</v>
+      </c>
+      <c r="F31" t="str">
+        <f>D31</f>
+        <v>g/day</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G34" si="4">E31/24</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="19">
+        <f>G31/$H$27</f>
+        <v>1.25</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31">
+        <v>94.971400000000003</v>
+      </c>
+      <c r="L31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" s="29">
+        <f>I31/K31*1000</f>
+        <v>13.16185714857315</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="B32" s="5"/>
+      <c r="D32" s="18"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="7"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="16"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" spans="2:25" ht="15">
+      <c r="B33" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="7"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="16"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" spans="2:25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="5">C34</f>
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" ref="F34" si="6">D34</f>
+        <v>g/day</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0.16741666666666666</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" ref="I34" si="7">G34/$H$27</f>
+        <v>3.3483333333333332</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K34">
+        <v>18.04</v>
+      </c>
+      <c r="L34" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="29">
+        <f t="shared" si="3"/>
+        <v>185.60606060606059</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" spans="2:25">
+      <c r="D35" s="18"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="7"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="16"/>
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" spans="2:25">
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36">
+        <v>0.2</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="7"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="16"/>
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" spans="2:25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5">
+        <v>385</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37">
+        <f>C37*$E$36</f>
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37">
+        <f>E37/24</f>
+        <v>3.2083333333333335</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="19">
+        <f>G37/$H$27</f>
+        <v>64.166666666666671</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37">
+        <v>180.15600000000001</v>
+      </c>
+      <c r="L37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" s="29">
+        <f t="shared" ref="M37" si="8">I37/K37*1000</f>
+        <v>356.17279838954391</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" spans="2:25">
+      <c r="B38" s="5"/>
+      <c r="D38" s="18"/>
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" spans="2:25" ht="15">
+      <c r="B39" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" spans="2:25">
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="18">
+        <f>C40/(C$40+C$41)*(1-C$42)</f>
+        <v>0.33435294117647052</v>
+      </c>
+      <c r="F40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40">
+        <f>E40*G$49*1000</f>
+        <v>33.435294117647054</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" s="34">
+        <f>G40/H$26</f>
+        <v>22.290196078431368</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O40" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y40" s="8"/>
+    </row>
+    <row r="41" spans="2:25">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="18">
+        <f>C41/(C$40+C$41)*(1-C$42)</f>
+        <v>0.64564705882352935</v>
+      </c>
+      <c r="F41" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G42" si="9">E41*G$49*1000</f>
+        <v>64.564705882352939</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+      <c r="K41" s="34">
+        <f t="shared" ref="K41:K42" si="10">G41/H$26</f>
+        <v>43.043137254901957</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O41" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" spans="2:25">
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>0.02</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="18">
+        <f>C42</f>
+        <v>0.02</v>
+      </c>
+      <c r="F42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>179</v>
+      </c>
+      <c r="K42" s="34">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O42" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y42" s="8"/>
+    </row>
+    <row r="43" spans="2:25">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <f>1.67*10^10</f>
+        <v>16700000000</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43">
+        <f>C43*$G$45</f>
+        <v>2.3379999999999998E-2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43">
+        <f>E43*$G$44*1000</f>
+        <v>24.548999999999999</v>
+      </c>
+      <c r="H43" t="s">
+        <v>179</v>
+      </c>
+      <c r="I43">
+        <f>G43*$G$46</f>
+        <v>9.8196000000000012</v>
+      </c>
+      <c r="J43" t="s">
+        <v>180</v>
+      </c>
+      <c r="K43" s="34">
+        <f>I43/H$26</f>
+        <v>6.5464000000000011</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="O43" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y43" s="8"/>
+    </row>
+    <row r="44" spans="2:25">
+      <c r="D44" s="18"/>
+      <c r="F44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="32">
+        <v>1.05</v>
+      </c>
+      <c r="H44" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y44" s="8"/>
+    </row>
+    <row r="45" spans="2:25" ht="15">
+      <c r="B45" s="5"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="18"/>
+      <c r="F45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45">
+        <f>1.4*10^(-12)</f>
+        <v>1.3999999999999999E-12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J45" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y45" s="8"/>
+    </row>
+    <row r="46" spans="2:25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="18"/>
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y46" s="8"/>
+    </row>
+    <row r="47" spans="2:25" ht="15">
+      <c r="B47" s="5"/>
+      <c r="C47" s="23"/>
+      <c r="F47" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47">
+        <v>0.2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y47" s="8"/>
+    </row>
+    <row r="48" spans="2:25">
+      <c r="F48" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>178</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9">
+      <c r="F49" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49">
+        <v>0.1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>191</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C33" r:id="rId1"/>
+    <hyperlink ref="I45" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <f>C2/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <f>D2</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">B3/1000</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <f t="shared" ref="D3:D8" si="1">C3/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <f>D3+E2</f>
+        <v>0.125</v>
+      </c>
+      <c r="G3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1500</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E7" si="2">D4+E3</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="10">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="2"/>
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="G5">
+        <f>SUM(C5:C8)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="2"/>
+        <v>0.2583333333333333</v>
+      </c>
+      <c r="G6">
+        <f>SUM(G2:G5)/24</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28">
+      <c r="A8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1800</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E8" s="13">
+        <f>D8+E7</f>
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="16">
+        <f>0.1*E8</f>
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28">
+      <c r="A9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="10">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="15">
+        <f>C9/24</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" ref="B10:D10" si="3">SUM(B2:B9)</f>
+        <v>9200</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="3"/>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="13">
+        <f>D9+F8</f>
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13">
+        <v>0.02</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <f>E13*C16</f>
+        <v>0.6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/COM-dFBA/Scripts/paramTables.xlsx
+++ b/COM-dFBA/Scripts/paramTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Vmax" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="138">
+  <cellStyleXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -756,8 +756,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -933,7 +931,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="138">
+  <cellStyles count="136">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1055,8 +1053,6 @@
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1375,7 +1371,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1386,7 +1382,7 @@
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1766,23 +1762,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1">
+    <row r="7" spans="1:23" ht="15">
+      <c r="A7" s="25">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="25">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="25">
         <v>0.104895</v>
       </c>
       <c r="G7" t="s">
@@ -1828,23 +1824,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
-      <c r="A8">
+    <row r="8" spans="1:23" ht="15">
+      <c r="A8" s="25">
         <v>1000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="25">
         <v>1000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="25">
         <v>1000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="25">
         <v>1000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="25">
         <v>1000</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="25">
         <v>1000</v>
       </c>
       <c r="G8" t="s">
@@ -1890,24 +1886,24 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1">
+    <row r="9" spans="1:23" ht="15">
+      <c r="A9" s="25">
         <v>2.5</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>16.836734693877553</v>
-      </c>
-      <c r="F9">
-        <v>8.7585034013605458</v>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>16.836734693877599</v>
+      </c>
+      <c r="F9" s="25">
+        <v>8.7585034013605494</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -1952,23 +1948,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
-      <c r="A10">
+    <row r="10" spans="1:23" ht="15">
+      <c r="A10" s="25">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="25">
         <v>0.1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="25">
         <v>1.26</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="25">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="25">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="25">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="G10" t="s">
@@ -2014,23 +2010,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1">
+    <row r="11" spans="1:23" ht="15">
+      <c r="A11" s="25">
         <v>0.623</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="25">
         <v>0.7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="25">
         <v>0.7</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="25">
         <v>0.7</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
         <v>0.5</v>
       </c>
       <c r="G11" t="s">
@@ -2076,25 +2072,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="1">
+    <row r="12" spans="1:23" ht="15">
+      <c r="A12" s="25">
         <v>0.2</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="25">
         <v>0.2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="25">
         <v>0.2</v>
       </c>
-      <c r="D12">
-        <f>C12/10</f>
-        <v>0.02</v>
-      </c>
-      <c r="E12">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F12">
-        <v>0.20625000000000002</v>
+      <c r="D12" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G12" t="s">
         <v>82</v>
@@ -2139,25 +2134,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1">
+    <row r="13" spans="1:23" ht="15">
+      <c r="A13" s="25">
         <v>0.2</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="25">
         <v>0.2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="25">
         <v>0.2</v>
       </c>
-      <c r="D13">
-        <f t="shared" ref="D13:D21" si="0">C13/10</f>
-        <v>0.02</v>
-      </c>
-      <c r="E13">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F13">
-        <v>0.20625000000000002</v>
+      <c r="D13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -2202,25 +2196,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="1">
+    <row r="14" spans="1:23" ht="15">
+      <c r="A14" s="25">
         <v>0.2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="25">
         <v>0.2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="25">
         <v>0.2</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F14">
-        <v>0.20625000000000002</v>
+      <c r="D14" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G14" t="s">
         <v>43</v>
@@ -2265,25 +2258,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
-      <c r="A15">
+    <row r="15" spans="1:23" ht="15">
+      <c r="A15" s="25">
         <v>0.3</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="25">
         <v>0.3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="25">
         <v>0.3</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="E15">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F15">
-        <v>0.20625000000000002</v>
+      <c r="D15" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2328,25 +2320,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="A16">
+    <row r="16" spans="1:23" ht="15">
+      <c r="A16" s="25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>5.6399999999999992E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F16">
-        <v>0.20625000000000002</v>
+      <c r="D16" s="25">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G16" t="s">
         <v>47</v>
@@ -2391,25 +2382,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="1">
+    <row r="17" spans="1:23" ht="15">
+      <c r="A17" s="25">
         <v>0.2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="25">
         <v>0.2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="25">
         <v>0.2</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="E17">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F17">
-        <v>0.20625000000000002</v>
+      <c r="D17" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
@@ -2454,25 +2444,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
-      <c r="A18">
+    <row r="18" spans="1:23" ht="15">
+      <c r="A18" s="25">
         <v>0.23599999999999999</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="25">
         <v>0.23599999999999999</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="25">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F18">
-        <v>0.20625000000000002</v>
+      <c r="D18" s="25">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G18" t="s">
         <v>51</v>
@@ -2517,25 +2506,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
-      <c r="A19">
+    <row r="19" spans="1:23" ht="15">
+      <c r="A19" s="25">
         <v>0.156</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="25">
         <v>0.156</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="25">
         <v>0.156</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="E19">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F19">
-        <v>0.20625000000000002</v>
+      <c r="D19" s="25">
+        <v>0.156</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G19" t="s">
         <v>53</v>
@@ -2580,25 +2568,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
-      <c r="A20">
+    <row r="20" spans="1:23" ht="15">
+      <c r="A20" s="25">
         <v>0.63200000000000001</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="25">
         <v>0.63200000000000001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="25">
         <v>0.63200000000000001</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F20">
-        <v>0.20625000000000002</v>
+      <c r="D20" s="25">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G20" t="s">
         <v>55</v>
@@ -2643,25 +2630,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21">
+    <row r="21" spans="1:23" ht="15">
+      <c r="A21" s="25">
         <v>0.38400000000000001</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="25">
         <v>0.38400000000000001</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="25">
         <v>0.38400000000000001</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>3.8400000000000004E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="F21">
-        <v>0.20625000000000002</v>
+      <c r="D21" s="25">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.20624999999999999</v>
       </c>
       <c r="G21" t="s">
         <v>57</v>
@@ -2706,23 +2692,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
+    <row r="22" spans="1:23" ht="15">
+      <c r="A22" s="25">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
         <v>2.5</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
         <v>0</v>
       </c>
       <c r="G22" t="s">
@@ -2768,23 +2754,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
+    <row r="23" spans="1:23" ht="15">
+      <c r="A23" s="25">
+        <v>0</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0</v>
+      </c>
+      <c r="C23" s="25">
         <v>6.6</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="25">
         <v>6.6</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="25">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="25">
         <v>1.7160000000000002E-2</v>
       </c>
       <c r="G23" t="s">
@@ -2830,23 +2816,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+    <row r="24" spans="1:23" ht="15">
+      <c r="A24" s="25">
+        <v>0</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
         <v>6.5399999999999998E-3</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="25">
         <v>6.5399999999999998E-3</v>
       </c>
       <c r="G24" t="s">
@@ -2892,23 +2878,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
+    <row r="25" spans="1:23" ht="15">
+      <c r="A25" s="25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
         <v>1.1220000000000001E-2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="25">
         <v>1.1220000000000001E-2</v>
       </c>
       <c r="G25" t="s">
@@ -2954,23 +2940,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+    <row r="26" spans="1:23" ht="15">
+      <c r="A26" s="25">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25">
         <v>6.6</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
         <v>0</v>
       </c>
       <c r="G26" t="s">
@@ -3016,23 +3002,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
+    <row r="27" spans="1:23" ht="15">
+      <c r="A27" s="25">
+        <v>0</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
         <v>6.6</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
         <v>0</v>
       </c>
       <c r="G27" t="s">
@@ -3078,23 +3064,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+    <row r="28" spans="1:23" ht="15">
+      <c r="A28" s="25">
+        <v>0</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0</v>
+      </c>
+      <c r="F28" s="25">
         <v>0</v>
       </c>
       <c r="G28" t="s">
@@ -3140,23 +3126,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
+    <row r="29" spans="1:23" ht="15">
+      <c r="A29" s="25">
+        <v>0</v>
+      </c>
+      <c r="B29" s="25">
+        <v>0</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
         <v>0</v>
       </c>
       <c r="G29" t="s">
@@ -3202,23 +3188,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
+    <row r="30" spans="1:23" ht="15">
+      <c r="A30" s="25">
+        <v>0</v>
+      </c>
+      <c r="B30" s="25">
+        <v>0</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0</v>
+      </c>
+      <c r="F30" s="25">
         <v>0</v>
       </c>
       <c r="G30" t="s">
@@ -3264,23 +3250,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+    <row r="31" spans="1:23" ht="15">
+      <c r="A31" s="25">
+        <v>0</v>
+      </c>
+      <c r="B31" s="25">
+        <v>0</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25">
         <v>0</v>
       </c>
       <c r="G31" t="s">
@@ -3326,23 +3312,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+    <row r="32" spans="1:23" ht="15">
+      <c r="A32" s="25">
+        <v>0</v>
+      </c>
+      <c r="B32" s="25">
+        <v>0</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0</v>
+      </c>
+      <c r="F32" s="25">
         <v>0</v>
       </c>
       <c r="G32" t="s">
@@ -3534,7 +3520,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:P32"/>
+      <selection activeCell="A12" sqref="A12:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3914,23 +3900,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1">
+    <row r="7" spans="1:23" ht="15">
+      <c r="A7" s="25">
         <v>3.1084171495814699E-2</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.31084171495814739</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.31084171495814739</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="25">
+        <v>0.310841714958147</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.310841714958147</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
         <v>1.05</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="25">
         <v>1.05</v>
       </c>
       <c r="G7" t="s">
@@ -3976,23 +3962,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
-      <c r="A8">
+    <row r="8" spans="1:23" ht="15">
+      <c r="A8" s="25">
         <v>1E-3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="25">
         <v>1E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="25">
         <v>1E-3</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25">
         <v>1E-3</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="25">
         <v>1E-3</v>
       </c>
       <c r="G8" t="s">
@@ -4038,23 +4024,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1">
+    <row r="9" spans="1:23" ht="15">
+      <c r="A9" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
         <v>0.21199999999999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="25">
         <v>0.16500000000000001</v>
       </c>
       <c r="G9" t="s">
@@ -4100,23 +4086,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1">
+    <row r="10" spans="1:23" ht="15">
+      <c r="A10" s="25">
         <v>0.157</v>
       </c>
-      <c r="B10" s="1">
-        <v>6.3176914313151117E-2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6.3176914313151117E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6.3176914313151117E-2</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10" s="25">
+        <v>6.3176914313151103E-2</v>
+      </c>
+      <c r="C10" s="25">
+        <v>6.3176914313151103E-2</v>
+      </c>
+      <c r="D10" s="25">
+        <v>6.3176914313151103E-2</v>
+      </c>
+      <c r="E10" s="25">
         <v>0.157</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="25">
         <v>0</v>
       </c>
       <c r="G10" t="s">
@@ -4162,23 +4148,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1">
+    <row r="11" spans="1:23" ht="15">
+      <c r="A11" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="25">
         <v>1.3300000000000001E-4</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G11" t="s">
@@ -4224,23 +4210,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="A12">
+    <row r="12" spans="1:23" ht="15">
+      <c r="A12" s="25">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="C12" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E12" s="25">
         <v>0.24</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="F12" s="25">
         <v>0.24</v>
       </c>
       <c r="G12" t="s">
@@ -4286,23 +4272,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
-      <c r="A13">
+    <row r="13" spans="1:23" ht="15">
+      <c r="A13" s="25">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="C13" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E13" s="25">
         <v>0.24</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="F13" s="25">
         <v>0.24</v>
       </c>
       <c r="G13" t="s">
@@ -4348,23 +4334,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14">
+    <row r="14" spans="1:23" ht="15">
+      <c r="A14" s="25">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E14" s="25">
         <v>0.24</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="F14" s="25">
         <v>0.24</v>
       </c>
       <c r="G14" t="s">
@@ -4410,23 +4396,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
-      <c r="A15">
+    <row r="15" spans="1:23" ht="15">
+      <c r="A15" s="25">
         <v>7.2000000000000005E-4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="25">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="C15" s="25">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="D15" s="25">
+        <v>7.2000000000000005E-4</v>
+      </c>
+      <c r="E15" s="25">
         <v>0.24</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="F15" s="25">
         <v>0.24</v>
       </c>
       <c r="G15" t="s">
@@ -4472,23 +4458,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="A16">
+    <row r="16" spans="1:23" ht="15">
+      <c r="A16" s="25">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C16" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D16" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E16" s="25">
         <v>0.24</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="F16" s="25">
         <v>0.24</v>
       </c>
       <c r="G16" t="s">
@@ -4534,23 +4520,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
-      <c r="A17">
+    <row r="17" spans="1:23" ht="15">
+      <c r="A17" s="25">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="D17" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E17" s="25">
         <v>0.24</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="F17" s="25">
         <v>0.24</v>
       </c>
       <c r="G17" t="s">
@@ -4596,23 +4582,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
-      <c r="A18">
+    <row r="18" spans="1:23" ht="15">
+      <c r="A18" s="25">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="25">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="25">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="25">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="25">
         <v>0.24</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="25">
         <v>0.24</v>
       </c>
       <c r="G18" t="s">
@@ -4658,23 +4644,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
-      <c r="A19">
+    <row r="19" spans="1:23" ht="15">
+      <c r="A19" s="25">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="25">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="25">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="25">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="25">
         <v>0.24</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="25">
         <v>0.24</v>
       </c>
       <c r="G19" t="s">
@@ -4720,23 +4706,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
-      <c r="A20">
+    <row r="20" spans="1:23" ht="15">
+      <c r="A20" s="25">
         <v>1.07E-3</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="25">
+        <v>1.07E-3</v>
+      </c>
+      <c r="C20" s="25">
+        <v>1.07E-3</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1.07E-3</v>
+      </c>
+      <c r="E20" s="25">
         <v>0.24</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="F20" s="25">
         <v>0.24</v>
       </c>
       <c r="G20" t="s">
@@ -4782,23 +4768,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
-      <c r="A21">
+    <row r="21" spans="1:23" ht="15">
+      <c r="A21" s="25">
         <v>1.2199999999999999E-3</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="C21" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="D21" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E21" s="25">
         <v>0.24</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="F21" s="25">
         <v>0.24</v>
       </c>
       <c r="G21" t="s">
@@ -4844,23 +4830,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
+    <row r="22" spans="1:23" ht="15">
+      <c r="A22" s="25">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
         <v>0.02</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
         <v>0</v>
       </c>
       <c r="G22" t="s">
@@ -4906,23 +4892,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.33890837612051583</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.33890837612051583</v>
-      </c>
-      <c r="E23">
+    <row r="23" spans="1:23" ht="15">
+      <c r="A23" s="25">
+        <v>0</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0.338908376120516</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0.338908376120516</v>
+      </c>
+      <c r="E23" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="25">
         <v>0.56499999999999995</v>
       </c>
       <c r="G23" t="s">
@@ -4968,23 +4954,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+    <row r="24" spans="1:23" ht="15">
+      <c r="A24" s="25">
+        <v>0</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
         <v>0.36899999999999999</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="25">
         <v>0.36899999999999999</v>
       </c>
       <c r="G24" t="s">
@@ -5030,23 +5016,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+    <row r="25" spans="1:23" ht="15">
+      <c r="A25" s="25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="25">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G25" t="s">
@@ -5092,23 +5078,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.33890837612051583</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
+    <row r="26" spans="1:23" ht="15">
+      <c r="A26" s="25">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.338908376120516</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
         <v>0</v>
       </c>
       <c r="G26" t="s">
@@ -5154,23 +5140,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.33890837612051583</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27">
+    <row r="27" spans="1:23" ht="15">
+      <c r="A27" s="25">
+        <v>0</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0.338908376120516</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
         <v>0</v>
       </c>
       <c r="G27" t="s">
@@ -5562,7 +5548,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5574,7 +5560,6 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="35">
-        <f>G1/10</f>
         <v>0</v>
       </c>
       <c r="B1">
@@ -5596,7 +5581,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>22.290196078431368</v>
+        <v>22.2901960784314</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5619,7 +5604,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>43.043137254901957</v>
+        <v>43.043137254902</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5642,7 +5627,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>1.3333333333333333</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5826,7 +5811,7 @@
         <v>4.4710000000000001</v>
       </c>
       <c r="B12" s="17">
-        <v>14.727769753830806</v>
+        <v>14.727769753830801</v>
       </c>
       <c r="C12" t="s">
         <v>82</v>
@@ -5852,7 +5837,7 @@
         <v>1.4079999999999999</v>
       </c>
       <c r="B13" s="35">
-        <v>4.6376817793040894</v>
+        <v>4.6376817793040903</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -5878,7 +5863,7 @@
         <v>3.4910000000000001</v>
       </c>
       <c r="B14" s="17">
-        <v>11.499563351906998</v>
+        <v>11.499563351907</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -5904,7 +5889,7 @@
         <v>2.2120000000000002</v>
       </c>
       <c r="B15" s="17">
-        <v>7.285514971851204</v>
+        <v>7.2855149718511996</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -5930,7 +5915,7 @@
         <v>3.4609999999999999</v>
       </c>
       <c r="B16" s="17">
-        <v>11.39965928698323</v>
+        <v>11.3996592869832</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -5956,7 +5941,7 @@
         <v>2.7629999999999999</v>
       </c>
       <c r="B17" s="17">
-        <v>9.1008015542839527</v>
+        <v>9.1008015542839509</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
@@ -5982,7 +5967,7 @@
         <v>0.47199999999999998</v>
       </c>
       <c r="B18" s="17">
-        <v>1.5540619819742105</v>
+        <v>1.5540619819742101</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -6008,7 +5993,7 @@
         <v>1.2589999999999999</v>
       </c>
       <c r="B19" s="17">
-        <v>4.1487143163816773</v>
+        <v>4.14871431638168</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
@@ -6034,7 +6019,7 @@
         <v>5.0979999999999999</v>
       </c>
       <c r="B20" s="17">
-        <v>16.793017232500791</v>
+        <v>16.793017232500802</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -6062,7 +6047,7 @@
         <v>2.734</v>
       </c>
       <c r="B21" s="35">
-        <v>9.0073815683599125</v>
+        <v>9.0073815683599108</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
@@ -6318,7 +6303,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6402,8 +6387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8207,7 +8192,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/COM-dFBA/Scripts/paramTables.xlsx
+++ b/COM-dFBA/Scripts/paramTables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27526"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zorrilla\Desktop\COM-dFBA\Scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3FA97F8F-C43E-4892-B529-C2EF08B2C542}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vmax" sheetId="1" r:id="rId1"/>
@@ -14,11 +20,8 @@
     <sheet name="conc. calc" sheetId="7" r:id="rId5"/>
     <sheet name="Flow rate calculation" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="193">
   <si>
     <t>sbo</t>
   </si>
@@ -131,15 +134,9 @@
     <t>x(8)</t>
   </si>
   <si>
-    <t xml:space="preserve">Water </t>
-  </si>
-  <si>
     <t>x(9)</t>
   </si>
   <si>
-    <t xml:space="preserve">Oxygen </t>
-  </si>
-  <si>
     <t>x(10)</t>
   </si>
   <si>
@@ -263,13 +260,7 @@
     <t xml:space="preserve">MFalpha2 </t>
   </si>
   <si>
-    <t>x(31)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Myrosinase </t>
-  </si>
-  <si>
-    <t>x(32)</t>
   </si>
   <si>
     <t xml:space="preserve">P28 </t>
@@ -607,12 +598,24 @@
   </si>
   <si>
     <t>kgww</t>
+  </si>
+  <si>
+    <t>from literature</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -727,7 +730,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="136">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -864,8 +867,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -930,8 +939,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="136">
+  <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1053,6 +1063,12 @@
     <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1371,26 +1387,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1452,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1514,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1576,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1638,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1700,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1762,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15">
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>10</v>
       </c>
@@ -1824,255 +1840,255 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15">
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
-        <v>1000</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="B8" s="25">
-        <v>1000</v>
+        <v>0.1</v>
       </c>
       <c r="C8" s="25">
-        <v>1000</v>
+        <v>1.26</v>
       </c>
       <c r="D8" s="25">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E8" s="25">
-        <v>1000</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F8" s="25">
-        <v>1000</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.126</v>
+      </c>
+      <c r="M8">
+        <v>0.126</v>
+      </c>
+      <c r="N8">
+        <v>0.126</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8" s="1">
+        <v>10</v>
+      </c>
+      <c r="W8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>0.623</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="K8">
-        <v>1000</v>
-      </c>
-      <c r="L8">
-        <v>1000</v>
-      </c>
-      <c r="M8">
-        <v>1000</v>
-      </c>
-      <c r="N8">
-        <v>1000</v>
-      </c>
-      <c r="O8">
-        <v>1000</v>
-      </c>
-      <c r="P8">
-        <v>1000</v>
-      </c>
-      <c r="R8">
-        <v>1000</v>
-      </c>
-      <c r="S8">
-        <v>1000</v>
-      </c>
-      <c r="T8">
-        <v>1000</v>
-      </c>
-      <c r="U8">
-        <v>1000</v>
-      </c>
-      <c r="V8">
-        <v>1000</v>
-      </c>
-      <c r="W8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="15">
-      <c r="A9" s="25">
-        <v>2.5</v>
-      </c>
-      <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
-        <v>16.836734693877599</v>
-      </c>
-      <c r="F9" s="25">
-        <v>8.7585034013605494</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1">
-        <v>2.5</v>
+        <v>0.623</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="O9">
-        <v>16.836734693877553</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>8.7585034013605458</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>10</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
-        <v>2.1999999999999999E-2</v>
+        <v>0.2</v>
       </c>
       <c r="B10" s="25">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="25">
-        <v>1.26</v>
+        <v>0.2</v>
       </c>
       <c r="D10" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="P10">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="R10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F10" s="25">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="L10">
-        <v>0.126</v>
-      </c>
-      <c r="M10">
-        <v>0.126</v>
-      </c>
-      <c r="N10">
-        <v>0.126</v>
-      </c>
-      <c r="O10" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R10">
-        <v>10</v>
-      </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-      <c r="T10">
-        <v>10</v>
-      </c>
-      <c r="U10">
-        <v>10</v>
-      </c>
-      <c r="V10" s="1">
-        <v>10</v>
-      </c>
-      <c r="W10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15">
-      <c r="A11" s="25">
-        <v>0.623</v>
-      </c>
-      <c r="B11" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K11" s="1">
-        <v>0.623</v>
-      </c>
-      <c r="L11">
-        <v>0.7</v>
-      </c>
-      <c r="M11">
-        <v>0.7</v>
-      </c>
-      <c r="N11">
-        <v>3.5920000000000001</v>
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.20625000000000002</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.0625000000000001E-2</v>
       </c>
       <c r="R11" s="1">
-        <v>10</v>
-      </c>
-      <c r="S11">
-        <v>10</v>
-      </c>
-      <c r="T11">
-        <v>10</v>
-      </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>0.2</v>
       </c>
@@ -2092,10 +2108,10 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1">
         <v>0.2</v>
@@ -2134,18 +2150,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B13" s="25">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C13" s="25">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="25">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E13" s="25">
         <v>0.20624999999999999</v>
@@ -2154,19 +2170,19 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.2</v>
+        <v>46</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+      <c r="L13">
+        <v>0.3</v>
+      </c>
+      <c r="M13">
+        <v>0.3</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -2196,18 +2212,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
-        <v>0.2</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="B14" s="25">
-        <v>0.2</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="C14" s="25">
-        <v>0.2</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D14" s="25">
-        <v>0.2</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="E14" s="25">
         <v>0.20624999999999999</v>
@@ -2216,19 +2232,19 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.2</v>
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="L14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="M14">
+        <v>0.56399999999999995</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -2258,18 +2274,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15">
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="B15" s="25">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C15" s="25">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="25">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="25">
         <v>0.20624999999999999</v>
@@ -2278,19 +2294,19 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15">
-        <v>0.3</v>
-      </c>
-      <c r="L15">
-        <v>0.3</v>
-      </c>
-      <c r="M15">
-        <v>0.3</v>
+        <v>50</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.2</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -2320,18 +2336,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15">
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
-        <v>0.56399999999999995</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="B16" s="25">
-        <v>0.56399999999999995</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="C16" s="25">
-        <v>0.56399999999999995</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D16" s="25">
-        <v>0.56399999999999995</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E16" s="25">
         <v>0.20624999999999999</v>
@@ -2340,19 +2356,19 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.56399999999999995</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="L16">
-        <v>0.56399999999999995</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="M16">
-        <v>0.56399999999999995</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -2382,18 +2398,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15">
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
-        <v>0.2</v>
+        <v>0.156</v>
       </c>
       <c r="B17" s="25">
-        <v>0.2</v>
+        <v>0.156</v>
       </c>
       <c r="C17" s="25">
-        <v>0.2</v>
+        <v>0.156</v>
       </c>
       <c r="D17" s="25">
-        <v>0.2</v>
+        <v>0.156</v>
       </c>
       <c r="E17" s="25">
         <v>0.20624999999999999</v>
@@ -2402,19 +2418,19 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.2</v>
+        <v>54</v>
+      </c>
+      <c r="K17">
+        <v>0.156</v>
+      </c>
+      <c r="L17">
+        <v>0.156</v>
+      </c>
+      <c r="M17">
+        <v>0.156</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -2444,18 +2460,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
-        <v>0.23599999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="B18" s="25">
-        <v>0.23599999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="C18" s="25">
-        <v>0.23599999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D18" s="25">
-        <v>0.23599999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="E18" s="25">
         <v>0.20624999999999999</v>
@@ -2464,19 +2480,19 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.23599999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="L18">
-        <v>0.23599999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="M18">
-        <v>0.23599999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -2506,18 +2522,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15">
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
-        <v>0.156</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="B19" s="25">
-        <v>0.156</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C19" s="25">
-        <v>0.156</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D19" s="25">
-        <v>0.156</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="E19" s="25">
         <v>0.20624999999999999</v>
@@ -2526,19 +2542,19 @@
         <v>0.20624999999999999</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.156</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="L19">
-        <v>0.156</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="M19">
-        <v>0.156</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -2568,131 +2584,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15">
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
-        <v>0.63200000000000001</v>
+        <v>0</v>
       </c>
       <c r="B20" s="25">
-        <v>0.63200000000000001</v>
+        <v>0</v>
       </c>
       <c r="C20" s="25">
-        <v>0.63200000000000001</v>
+        <v>0</v>
       </c>
       <c r="D20" s="25">
-        <v>0.63200000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="E20" s="25">
-        <v>0.20624999999999999</v>
+        <v>0</v>
       </c>
       <c r="F20" s="25">
-        <v>0.20624999999999999</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2.5</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>10</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
+        <v>6.6</v>
+      </c>
+      <c r="D21" s="25">
+        <v>6.6</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="F21" s="25">
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="G21" t="s">
         <v>55</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="L20">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="M20">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="P20">
-        <v>2.0625000000000001E-2</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1">
-        <v>1</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1</v>
-      </c>
-      <c r="V20" s="1">
-        <v>1</v>
-      </c>
-      <c r="W20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15">
-      <c r="A21" s="25">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0.20624999999999999</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0.20624999999999999</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
       </c>
       <c r="H21" t="s">
         <v>60</v>
       </c>
-      <c r="K21">
-        <v>0.38400000000000001</v>
+      <c r="K21" s="1">
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.38400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.38400000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0.20625000000000002</v>
-      </c>
-      <c r="P21">
-        <v>2.0625000000000001E-2</v>
+        <v>6.6</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.7160000000000002E-2</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
-      </c>
-      <c r="S21" s="1">
-        <v>1</v>
-      </c>
-      <c r="T21" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>10</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>0</v>
       </c>
@@ -2703,111 +2719,111 @@
         <v>0</v>
       </c>
       <c r="D22" s="25">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E22" s="25">
-        <v>0</v>
+        <v>6.5399999999999998E-3</v>
       </c>
       <c r="F22" s="25">
-        <v>0</v>
+        <v>6.5399999999999998E-3</v>
       </c>
       <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="P22">
+        <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>0</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="F23" s="25">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="G23" t="s">
         <v>59</v>
       </c>
-      <c r="H22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>2.5</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>10</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15">
-      <c r="A23" s="25">
-        <v>0</v>
-      </c>
-      <c r="B23" s="25">
-        <v>0</v>
-      </c>
-      <c r="C23" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="D23" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="E23" s="25">
-        <v>1.7160000000000002E-2</v>
-      </c>
-      <c r="F23" s="25">
-        <v>1.7160000000000002E-2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>61</v>
-      </c>
       <c r="H23" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="1">
+        <v>65</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>1.7160000000000002E-2</v>
+        <v>1.1220000000000001E-2</v>
       </c>
       <c r="P23" s="1">
-        <v>1.7160000000000002E-2</v>
-      </c>
-      <c r="R23" s="1">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
         <v>10</v>
@@ -2816,7 +2832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15">
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>0</v>
       </c>
@@ -2824,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="C24" s="25">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="D24" s="25">
         <v>0</v>
       </c>
       <c r="E24" s="25">
-        <v>6.5399999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="F24" s="25">
-        <v>6.5399999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2848,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>6.5399999999999998E-3</v>
-      </c>
-      <c r="P24">
-        <v>6.5399999999999998E-3</v>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2866,349 +2882,349 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>6.6</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
         <v>10</v>
       </c>
-      <c r="W24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15">
-      <c r="A25" s="25">
-        <v>0</v>
-      </c>
-      <c r="B25" s="25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="25">
-        <v>1.1220000000000001E-2</v>
-      </c>
-      <c r="F25" s="25">
-        <v>1.1220000000000001E-2</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
         <v>66</v>
       </c>
-      <c r="H25" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>1.1220000000000001E-2</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1.1220000000000001E-2</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0</v>
-      </c>
-      <c r="V25" s="1">
-        <v>10</v>
-      </c>
-      <c r="W25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15">
-      <c r="A26" s="25">
-        <v>0</v>
-      </c>
-      <c r="B26" s="25">
-        <v>0</v>
-      </c>
-      <c r="C26" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="D26" s="25">
-        <v>0</v>
-      </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>0</v>
+      </c>
+      <c r="B27" s="25">
+        <v>0</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
         <v>68</v>
       </c>
-      <c r="H26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>6.6</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>10</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15">
-      <c r="A27" s="25">
-        <v>0</v>
-      </c>
-      <c r="B27" s="25">
-        <v>0</v>
-      </c>
-      <c r="C27" s="25">
-        <v>0</v>
-      </c>
-      <c r="D27" s="25">
-        <v>6.6</v>
-      </c>
-      <c r="E27" s="25">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>0</v>
+      </c>
+      <c r="B28" s="25">
+        <v>0</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>70</v>
       </c>
-      <c r="H27" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>10</v>
-      </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15">
-      <c r="A28" s="25">
-        <v>0</v>
-      </c>
-      <c r="B28" s="25">
-        <v>0</v>
-      </c>
-      <c r="C28" s="25">
-        <v>0</v>
-      </c>
-      <c r="D28" s="25">
-        <v>0</v>
-      </c>
-      <c r="E28" s="25">
-        <v>0</v>
-      </c>
-      <c r="F28" s="25">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>0</v>
+      </c>
+      <c r="B29" s="25">
+        <v>0</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>72</v>
       </c>
-      <c r="H28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="15">
-      <c r="A29" s="25">
-        <v>0</v>
-      </c>
-      <c r="B29" s="25">
-        <v>0</v>
-      </c>
-      <c r="C29" s="25">
-        <v>0</v>
-      </c>
-      <c r="D29" s="25">
-        <v>0</v>
-      </c>
-      <c r="E29" s="25">
-        <v>0</v>
-      </c>
-      <c r="F29" s="25">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>0</v>
+      </c>
+      <c r="B30" s="25">
+        <v>0</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>74</v>
-      </c>
-      <c r="H29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15">
-      <c r="A30" s="25">
-        <v>0</v>
-      </c>
-      <c r="B30" s="25">
-        <v>0</v>
-      </c>
-      <c r="C30" s="25">
-        <v>0</v>
-      </c>
-      <c r="D30" s="25">
-        <v>0</v>
-      </c>
-      <c r="E30" s="25">
-        <v>0</v>
-      </c>
-      <c r="F30" s="25">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>76</v>
       </c>
       <c r="H30" t="s">
         <v>77</v>
@@ -3250,256 +3266,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15">
-      <c r="A31" s="25">
-        <v>0</v>
-      </c>
-      <c r="B31" s="25">
-        <v>0</v>
-      </c>
-      <c r="C31" s="25">
-        <v>0</v>
-      </c>
-      <c r="D31" s="25">
-        <v>0</v>
-      </c>
-      <c r="E31" s="25">
-        <v>0</v>
-      </c>
-      <c r="F31" s="25">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15">
-      <c r="A32" s="25">
-        <v>0</v>
-      </c>
-      <c r="B32" s="25">
-        <v>0</v>
-      </c>
-      <c r="C32" s="25">
-        <v>0</v>
-      </c>
-      <c r="D32" s="25">
-        <v>0</v>
-      </c>
-      <c r="E32" s="25">
-        <v>0</v>
-      </c>
-      <c r="F32" s="25">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E31" t="s">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K36" s="20"/>
       <c r="L36" s="21"/>
       <c r="M36" s="22"/>
       <c r="P36" s="22"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K37" s="20"/>
       <c r="L37" s="21"/>
       <c r="M37" s="22"/>
       <c r="P37" s="22"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K38" s="20"/>
       <c r="L38" s="21"/>
       <c r="M38" s="22"/>
       <c r="P38" s="22"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K39" s="20"/>
       <c r="L39" s="21"/>
       <c r="M39" s="22"/>
       <c r="P39" s="22"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K40" s="20"/>
       <c r="L40" s="21"/>
       <c r="M40" s="22"/>
       <c r="P40" s="22"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K41" s="20"/>
       <c r="L41" s="21"/>
       <c r="M41" s="22"/>
       <c r="P41" s="22"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K42" s="20"/>
       <c r="L42" s="21"/>
       <c r="M42" s="22"/>
       <c r="P42" s="22"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K43" s="20"/>
       <c r="L43" s="21"/>
       <c r="M43" s="22"/>
       <c r="P43" s="22"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K44" s="20"/>
       <c r="L44" s="21"/>
       <c r="M44" s="22"/>
       <c r="P44" s="22"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K45" s="20"/>
       <c r="L45" s="21"/>
       <c r="M45" s="22"/>
       <c r="P45" s="22"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K46" s="20"/>
       <c r="L46" s="21"/>
       <c r="M46" s="22"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K47" s="20"/>
       <c r="L47" s="21"/>
       <c r="M47" s="22"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K48" s="20"/>
       <c r="L48" s="21"/>
       <c r="M48" s="22"/>
     </row>
-    <row r="49" spans="11:13">
+    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K49" s="20"/>
       <c r="L49" s="21"/>
       <c r="M49" s="22"/>
     </row>
-    <row r="50" spans="11:13">
+    <row r="50" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K50" s="20"/>
       <c r="L50" s="21"/>
       <c r="M50" s="22"/>
     </row>
-    <row r="51" spans="11:13">
+    <row r="51" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K51" s="20"/>
       <c r="L51" s="21"/>
       <c r="M51" s="22"/>
     </row>
-    <row r="52" spans="11:13">
+    <row r="52" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K52" s="20"/>
       <c r="L52" s="21"/>
       <c r="M52" s="22"/>
     </row>
-    <row r="53" spans="11:13">
+    <row r="53" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K53" s="20"/>
       <c r="L53" s="21"/>
       <c r="M53" s="22"/>
     </row>
-    <row r="54" spans="11:13">
+    <row r="54" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K54" s="20"/>
       <c r="L54" s="21"/>
       <c r="M54" s="22"/>
     </row>
-    <row r="55" spans="11:13">
+    <row r="55" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K55" s="20"/>
       <c r="L55" s="21"/>
       <c r="M55" s="22"/>
@@ -3516,19 +3408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D21"/>
+      <selection activeCell="G1" sqref="G1:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3590,7 +3482,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3652,7 +3544,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3714,7 +3606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3776,7 +3668,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3838,7 +3730,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3900,7 +3792,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15">
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>3.1084171495814699E-2</v>
       </c>
@@ -3962,48 +3854,48 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15">
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
-        <v>1E-3</v>
+        <v>0.157</v>
       </c>
       <c r="B8" s="25">
-        <v>1E-3</v>
+        <v>6.3176914313151103E-2</v>
       </c>
       <c r="C8" s="25">
-        <v>1E-3</v>
+        <v>6.3176914313151103E-2</v>
       </c>
       <c r="D8" s="25">
-        <v>0</v>
+        <v>6.3176914313151103E-2</v>
       </c>
       <c r="E8" s="25">
-        <v>1E-3</v>
+        <v>0.157</v>
       </c>
       <c r="F8" s="25">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8">
-        <v>1E-3</v>
-      </c>
-      <c r="L8">
-        <v>1E-3</v>
-      </c>
-      <c r="M8">
-        <v>1E-3</v>
-      </c>
-      <c r="N8">
-        <v>1E-3</v>
-      </c>
-      <c r="O8">
-        <v>1E-3</v>
-      </c>
-      <c r="P8">
-        <v>1E-3</v>
+        <v>36</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.3176914313151117E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6.3176914313151117E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6.3176914313151117E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.157</v>
       </c>
       <c r="R8">
         <v>0.5</v>
@@ -4024,172 +3916,172 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15">
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B9" s="25">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C9" s="25">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D9" s="25">
-        <v>0</v>
+        <v>1.3300000000000001E-4</v>
       </c>
       <c r="E9" s="25">
-        <v>0.21199999999999999</v>
+        <v>0</v>
       </c>
       <c r="F9" s="25">
-        <v>0.16500000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="P9">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="R9">
-        <v>0.5</v>
-      </c>
-      <c r="S9">
-        <v>0.5</v>
-      </c>
-      <c r="T9">
-        <v>0.5</v>
-      </c>
-      <c r="U9">
-        <v>0.5</v>
-      </c>
-      <c r="V9">
-        <v>0.5</v>
-      </c>
-      <c r="W9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15">
-      <c r="A10" s="25">
-        <v>0.157</v>
-      </c>
-      <c r="B10" s="25">
-        <v>6.3176914313151103E-2</v>
-      </c>
-      <c r="C10" s="25">
-        <v>6.3176914313151103E-2</v>
-      </c>
-      <c r="D10" s="25">
-        <v>6.3176914313151103E-2</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.157</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L10">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="M10">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.5</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
+      <c r="T10">
+        <v>0.5</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="W10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.157</v>
-      </c>
-      <c r="L10" s="1">
-        <v>6.3176914313151117E-2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>6.3176914313151117E-2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>6.3176914313151117E-2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.157</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.157</v>
-      </c>
-      <c r="R10">
-        <v>0.5</v>
-      </c>
-      <c r="S10">
-        <v>0.5</v>
-      </c>
-      <c r="T10">
-        <v>0.5</v>
-      </c>
-      <c r="U10">
-        <v>0.5</v>
-      </c>
-      <c r="V10">
-        <v>0.5</v>
-      </c>
-      <c r="W10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15">
-      <c r="A11" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B11" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C11" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D11" s="25">
-        <v>1.3300000000000001E-4</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
       <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M11" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1.3300000000000001E-4</v>
+        <v>42</v>
+      </c>
+      <c r="K11">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L11">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="M11">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="R11">
         <v>0.5</v>
@@ -4210,7 +4102,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>1.2199999999999999E-3</v>
       </c>
@@ -4230,10 +4122,10 @@
         <v>0.24</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>1.2199999999999999E-3</v>
@@ -4250,8 +4142,8 @@
       <c r="O12" s="1">
         <v>0.24</v>
       </c>
-      <c r="P12">
-        <v>0</v>
+      <c r="P12" s="1">
+        <v>0.24</v>
       </c>
       <c r="R12">
         <v>0.5</v>
@@ -4272,18 +4164,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="B13" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="C13" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="D13" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="E13" s="25">
         <v>0.24</v>
@@ -4292,19 +4184,19 @@
         <v>0.24</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.2199999999999999E-3</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="L13">
-        <v>1.2199999999999999E-3</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="M13">
-        <v>1.2199999999999999E-3</v>
+        <v>7.2000000000000005E-4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -4334,18 +4226,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15">
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="B14" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C14" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D14" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E14" s="25">
         <v>0.24</v>
@@ -4354,19 +4246,19 @@
         <v>0.24</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>1.2199999999999999E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L14">
-        <v>1.2199999999999999E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M14">
-        <v>1.2199999999999999E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -4396,18 +4288,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15">
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
-        <v>7.2000000000000005E-4</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="B15" s="25">
-        <v>7.2000000000000005E-4</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="C15" s="25">
-        <v>7.2000000000000005E-4</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="D15" s="25">
-        <v>7.2000000000000005E-4</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="E15" s="25">
         <v>0.24</v>
@@ -4416,19 +4308,19 @@
         <v>0.24</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>7.2000000000000005E-4</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="L15">
-        <v>7.2000000000000005E-4</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="M15">
-        <v>7.2000000000000005E-4</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -4458,18 +4350,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15">
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="B16" s="25">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="C16" s="25">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D16" s="25">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E16" s="25">
         <v>0.24</v>
@@ -4478,19 +4370,19 @@
         <v>0.24</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="L16">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="M16">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -4520,18 +4412,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15">
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="B17" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="C17" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="D17" s="25">
-        <v>1.2199999999999999E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="E17" s="25">
         <v>0.24</v>
@@ -4540,19 +4432,19 @@
         <v>0.24</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>1.2199999999999999E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="L17">
-        <v>1.2199999999999999E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="M17">
-        <v>1.2199999999999999E-3</v>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -4582,18 +4474,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
-        <v>8.9999999999999998E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="B18" s="25">
-        <v>8.9999999999999998E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="C18" s="25">
-        <v>8.9999999999999998E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="D18" s="25">
-        <v>8.9999999999999998E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="E18" s="25">
         <v>0.24</v>
@@ -4602,19 +4494,19 @@
         <v>0.24</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>8.9999999999999998E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="L18">
-        <v>8.9999999999999998E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="M18">
-        <v>8.9999999999999998E-4</v>
+        <v>1.07E-3</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -4644,18 +4536,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15">
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
-        <v>2.2699999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="B19" s="25">
-        <v>2.2699999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="C19" s="25">
-        <v>2.2699999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="D19" s="25">
-        <v>2.2699999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="E19" s="25">
         <v>0.24</v>
@@ -4664,19 +4556,19 @@
         <v>0.24</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>2.2699999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="L19">
-        <v>2.2699999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="M19">
-        <v>2.2699999999999999E-3</v>
+        <v>1.2199999999999999E-3</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -4706,110 +4598,110 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15">
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
-        <v>1.07E-3</v>
+        <v>0</v>
       </c>
       <c r="B20" s="25">
-        <v>1.07E-3</v>
+        <v>0</v>
       </c>
       <c r="C20" s="25">
-        <v>1.07E-3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="25">
-        <v>1.07E-3</v>
+        <v>0.02</v>
       </c>
       <c r="E20" s="25">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F20" s="25">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25">
+        <v>0</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0.338908376120516</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0.338908376120516</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="G21" t="s">
         <v>55</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20">
-        <v>1.07E-3</v>
-      </c>
-      <c r="L20">
-        <v>1.07E-3</v>
-      </c>
-      <c r="M20">
-        <v>1.07E-3</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="R20">
-        <v>0.5</v>
-      </c>
-      <c r="S20">
-        <v>0.5</v>
-      </c>
-      <c r="T20">
-        <v>0.5</v>
-      </c>
-      <c r="U20">
-        <v>0.5</v>
-      </c>
-      <c r="V20">
-        <v>0.5</v>
-      </c>
-      <c r="W20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15">
-      <c r="A21" s="25">
-        <v>1.2199999999999999E-3</v>
-      </c>
-      <c r="B21" s="25">
-        <v>1.2199999999999999E-3</v>
-      </c>
-      <c r="C21" s="25">
-        <v>1.2199999999999999E-3</v>
-      </c>
-      <c r="D21" s="25">
-        <v>1.2199999999999999E-3</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0.24</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0.24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
       </c>
       <c r="H21" t="s">
         <v>60</v>
       </c>
       <c r="K21">
-        <v>1.2199999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.2199999999999999E-3</v>
-      </c>
-      <c r="M21">
-        <v>1.2199999999999999E-3</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.24</v>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.33890837612051583</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.33890837612051583</v>
+      </c>
+      <c r="O21">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="P21">
+        <v>0.56499999999999995</v>
       </c>
       <c r="R21">
         <v>0.5</v>
@@ -4830,7 +4722,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15">
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>0</v>
       </c>
@@ -4841,512 +4733,512 @@
         <v>0</v>
       </c>
       <c r="D22" s="25">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E22" s="25">
-        <v>0</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="F22" s="25">
-        <v>0</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="P22">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>0</v>
+      </c>
+      <c r="B23" s="25">
+        <v>0</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F23" s="25">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G23" t="s">
         <v>59</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P23">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="R23">
+        <v>0.5</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>0</v>
+      </c>
+      <c r="B24" s="25">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0.338908376120516</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.33890837612051583</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>0</v>
+      </c>
+      <c r="B25" s="25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0.338908376120516</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
         <v>64</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0.5</v>
-      </c>
-      <c r="S22">
-        <v>0.5</v>
-      </c>
-      <c r="T22">
-        <v>0.5</v>
-      </c>
-      <c r="U22">
-        <v>0.5</v>
-      </c>
-      <c r="V22">
-        <v>0.5</v>
-      </c>
-      <c r="W22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15">
-      <c r="A23" s="25">
-        <v>0</v>
-      </c>
-      <c r="B23" s="25">
-        <v>0</v>
-      </c>
-      <c r="C23" s="25">
-        <v>0.338908376120516</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0.338908376120516</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="G23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
         <v>0.33890837612051583</v>
       </c>
-      <c r="N23" s="1">
-        <v>0.33890837612051583</v>
-      </c>
-      <c r="O23">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="P23">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="R23">
-        <v>0.5</v>
-      </c>
-      <c r="S23">
-        <v>0.5</v>
-      </c>
-      <c r="T23">
-        <v>0.5</v>
-      </c>
-      <c r="U23">
-        <v>0.5</v>
-      </c>
-      <c r="V23">
-        <v>0.5</v>
-      </c>
-      <c r="W23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15">
-      <c r="A24" s="25">
-        <v>0</v>
-      </c>
-      <c r="B24" s="25">
-        <v>0</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="F24" s="25">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="G24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="P24">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="R24">
-        <v>0.5</v>
-      </c>
-      <c r="S24">
-        <v>0.5</v>
-      </c>
-      <c r="T24">
-        <v>0.5</v>
-      </c>
-      <c r="U24">
-        <v>0.5</v>
-      </c>
-      <c r="V24">
-        <v>0.5</v>
-      </c>
-      <c r="W24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15">
-      <c r="A25" s="25">
-        <v>0</v>
-      </c>
-      <c r="B25" s="25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="25">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F25" s="25">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
+        <v>0.5</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
+      <c r="W25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
         <v>66</v>
       </c>
-      <c r="H25" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="P25">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="R25">
-        <v>0.5</v>
-      </c>
-      <c r="S25">
-        <v>0.5</v>
-      </c>
-      <c r="T25">
-        <v>0.5</v>
-      </c>
-      <c r="U25">
-        <v>0.5</v>
-      </c>
-      <c r="V25">
-        <v>0.5</v>
-      </c>
-      <c r="W25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15">
-      <c r="A26" s="25">
-        <v>0</v>
-      </c>
-      <c r="B26" s="25">
-        <v>0</v>
-      </c>
-      <c r="C26" s="25">
-        <v>0.338908376120516</v>
-      </c>
-      <c r="D26" s="25">
-        <v>0</v>
-      </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0.5</v>
+      </c>
+      <c r="S26">
+        <v>0.5</v>
+      </c>
+      <c r="T26">
+        <v>0.5</v>
+      </c>
+      <c r="U26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>0.5</v>
+      </c>
+      <c r="W26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
         <v>68</v>
       </c>
-      <c r="H26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.33890837612051583</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0.5</v>
-      </c>
-      <c r="S26">
-        <v>0.5</v>
-      </c>
-      <c r="T26">
-        <v>0.5</v>
-      </c>
-      <c r="U26">
-        <v>0.5</v>
-      </c>
-      <c r="V26">
-        <v>0.5</v>
-      </c>
-      <c r="W26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15">
-      <c r="A27" s="25">
-        <v>0</v>
-      </c>
-      <c r="B27" s="25">
-        <v>0</v>
-      </c>
-      <c r="C27" s="25">
-        <v>0</v>
-      </c>
-      <c r="D27" s="25">
-        <v>0.338908376120516</v>
-      </c>
-      <c r="E27" s="25">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0.5</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27">
+        <v>0.5</v>
+      </c>
+      <c r="U27">
+        <v>0.5</v>
+      </c>
+      <c r="V27">
+        <v>0.5</v>
+      </c>
+      <c r="W27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
         <v>70</v>
       </c>
-      <c r="H27" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.33890837612051583</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0.5</v>
-      </c>
-      <c r="S27">
-        <v>0.5</v>
-      </c>
-      <c r="T27">
-        <v>0.5</v>
-      </c>
-      <c r="U27">
-        <v>0.5</v>
-      </c>
-      <c r="V27">
-        <v>0.5</v>
-      </c>
-      <c r="W27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0.5</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.5</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+      <c r="W28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
         <v>72</v>
       </c>
-      <c r="H28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0.5</v>
-      </c>
-      <c r="S28">
-        <v>0.5</v>
-      </c>
-      <c r="T28">
-        <v>0.5</v>
-      </c>
-      <c r="U28">
-        <v>0.5</v>
-      </c>
-      <c r="V28">
-        <v>0.5</v>
-      </c>
-      <c r="W28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0.5</v>
+      </c>
+      <c r="S29">
+        <v>0.5</v>
+      </c>
+      <c r="T29">
+        <v>0.5</v>
+      </c>
+      <c r="U29">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
+        <v>0.5</v>
+      </c>
+      <c r="W29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
         <v>74</v>
-      </c>
-      <c r="H29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0.5</v>
-      </c>
-      <c r="S29">
-        <v>0.5</v>
-      </c>
-      <c r="T29">
-        <v>0.5</v>
-      </c>
-      <c r="U29">
-        <v>0.5</v>
-      </c>
-      <c r="V29">
-        <v>0.5</v>
-      </c>
-      <c r="W29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>76</v>
       </c>
       <c r="H30" t="s">
         <v>77</v>
@@ -5388,147 +5280,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0.5</v>
-      </c>
-      <c r="S31">
-        <v>0.5</v>
-      </c>
-      <c r="T31">
-        <v>0.5</v>
-      </c>
-      <c r="U31">
-        <v>0.5</v>
-      </c>
-      <c r="V31">
-        <v>0.5</v>
-      </c>
-      <c r="W31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0.5</v>
-      </c>
-      <c r="S32">
-        <v>0.5</v>
-      </c>
-      <c r="T32">
-        <v>0.5</v>
-      </c>
-      <c r="U32">
-        <v>0.5</v>
-      </c>
-      <c r="V32">
-        <v>0.5</v>
-      </c>
-      <c r="W32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E31" t="s">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5544,21 +5312,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="35">
         <v>0</v>
       </c>
@@ -5571,15 +5339,15 @@
       <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2">
-        <f>K1/10</f>
-        <v>0</v>
-      </c>
+      <c r="G1" s="2"/>
       <c r="I1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="J1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22.2901960784314</v>
       </c>
@@ -5592,17 +5360,19 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="35">
-        <v>44.580392156862743</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5.5</v>
-      </c>
+      <c r="F2" s="35"/>
+      <c r="G2" s="2"/>
       <c r="I2">
         <v>22.290196078431368</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2">
+        <v>22.290196078431368</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>43.043137254902</v>
       </c>
@@ -5615,17 +5385,19 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="35">
-        <v>86.086274509803928</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10.9</v>
-      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="2"/>
       <c r="I3">
         <v>43.043137254901957</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3">
+        <v>43.043137254901957</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3333333333333299</v>
       </c>
@@ -5638,17 +5410,19 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="35">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="2"/>
       <c r="I4">
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0</v>
       </c>
@@ -5661,16 +5435,17 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5681,22 +5456,24 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="36">
-        <v>16.366</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.7</v>
-      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="2"/>
       <c r="I6">
         <v>6.5464000000000011</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6">
+        <v>6.5464000000000011</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10</v>
       </c>
       <c r="B7" s="17">
-        <v>400</v>
+        <v>356.1728</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -5704,534 +5481,561 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="F7">
-        <v>890.43199597385956</v>
-      </c>
-      <c r="G7" s="2">
-        <v>190.97</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="I7">
         <v>356.17279838954391</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="35">
-        <v>6000</v>
+      <c r="J7">
+        <v>356.17279838954391</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>10</v>
+      </c>
+      <c r="B8" s="17">
+        <v>400</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="2"/>
+      <c r="I8">
+        <v>13.16185714857315</v>
+      </c>
+      <c r="J8" s="17">
+        <v>400</v>
+      </c>
+      <c r="K8">
+        <f>B8/I8</f>
+        <v>30.390847999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>20</v>
+      </c>
+      <c r="B9" s="17">
+        <v>185.6</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="35">
-        <v>10000</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="35">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="2"/>
+      <c r="I9">
+        <v>185.60606060606059</v>
+      </c>
+      <c r="J9" s="17">
+        <v>185.6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>4.4710000000000001</v>
+      </c>
+      <c r="B10" s="17">
+        <v>14.727769753830801</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="35">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="17">
-        <v>400</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="2"/>
+      <c r="I10">
+        <v>5.8911079015323233</v>
+      </c>
+      <c r="J10" s="17">
+        <v>14.727769753830801</v>
+      </c>
+      <c r="K10">
+        <f>B10/I10</f>
+        <v>2.4999999999999987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="B11" s="35">
+        <v>4.6376817793040903</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="17">
-        <v>32.904642871432877</v>
-      </c>
-      <c r="G10" s="2">
-        <v>52.1</v>
-      </c>
-      <c r="I10">
-        <v>13.16185714857315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
-        <v>20</v>
-      </c>
-      <c r="B11" s="17">
-        <v>200</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="2"/>
+      <c r="I11">
+        <v>1.8550727117216357</v>
+      </c>
+      <c r="J11" s="35">
+        <v>4.6376817793040903</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K19" si="0">B11/I11</f>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>3.4910000000000001</v>
+      </c>
+      <c r="B12" s="17">
+        <v>11.499563351907</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="2"/>
+      <c r="I12">
+        <v>4.5998253407627994</v>
+      </c>
+      <c r="J12" s="17">
+        <v>11.499563351907</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="B13" s="17">
+        <v>7.2855149718511996</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="17">
-        <v>464.01515151515156</v>
-      </c>
-      <c r="G11" s="2">
-        <v>21065</v>
-      </c>
-      <c r="I11">
-        <v>185.60606060606059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
-        <v>4.4710000000000001</v>
-      </c>
-      <c r="B12" s="17">
-        <v>14.727769753830801</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="17">
-        <v>14.727769753830806</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4.4710000000000001</v>
-      </c>
-      <c r="I12">
-        <v>5.8911079015323233</v>
-      </c>
-      <c r="K12" s="22">
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="B13" s="35">
-        <v>4.6376817793040903</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="2"/>
+      <c r="I13">
+        <v>2.9142059887404823</v>
+      </c>
+      <c r="J13" s="17">
+        <v>7.2855149718511996</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999978</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>3.4609999999999999</v>
+      </c>
+      <c r="B14" s="17">
+        <v>11.3996592869832</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="35">
-        <v>4.6376817793040894</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.4079999999999999</v>
-      </c>
-      <c r="I13">
-        <v>1.8550727117216357</v>
-      </c>
-      <c r="K13" s="22">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
-        <v>3.4910000000000001</v>
-      </c>
-      <c r="B14" s="17">
-        <v>11.499563351907</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="2"/>
+      <c r="I14">
+        <v>4.5598637147932921</v>
+      </c>
+      <c r="J14" s="17">
+        <v>11.3996592869832</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999933</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>2.7629999999999999</v>
+      </c>
+      <c r="B15" s="17">
+        <v>9.1008015542839509</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="17">
-        <v>11.499563351906998</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3.4910000000000001</v>
-      </c>
-      <c r="I14">
-        <v>4.5998253407627994</v>
-      </c>
-      <c r="K14" s="22">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="B15" s="17">
-        <v>7.2855149718511996</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="2"/>
+      <c r="I15">
+        <v>3.6403206217135811</v>
+      </c>
+      <c r="J15" s="17">
+        <v>9.1008015542839509</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1.5540619819742101</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="17">
-        <v>7.285514971851204</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="I15">
-        <v>2.9142059887404823</v>
-      </c>
-      <c r="K15" s="22">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
-        <v>3.4609999999999999</v>
-      </c>
-      <c r="B16" s="17">
-        <v>11.3996592869832</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="2"/>
+      <c r="I16">
+        <v>0.6216247927896843</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1.5540619819742101</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999991</v>
+      </c>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="B17" s="17">
+        <v>4.14871431638168</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="17">
-        <v>11.39965928698323</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3.4609999999999999</v>
-      </c>
-      <c r="I16">
-        <v>4.5598637147932921</v>
-      </c>
-      <c r="K16" s="22">
-        <v>7.56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2">
-        <v>2.7629999999999999</v>
-      </c>
-      <c r="B17" s="17">
-        <v>9.1008015542839509</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="2"/>
+      <c r="I17">
+        <v>1.6594857265526712</v>
+      </c>
+      <c r="J17" s="17">
+        <v>4.14871431638168</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000013</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>5.0979999999999999</v>
+      </c>
+      <c r="B18" s="17">
+        <v>16.793017232500802</v>
+      </c>
+      <c r="C18" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="17">
-        <v>9.1008015542839527</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2.7629999999999999</v>
-      </c>
-      <c r="I17">
-        <v>3.6403206217135811</v>
-      </c>
-      <c r="K17" s="22">
-        <v>6.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="B18" s="17">
-        <v>1.5540619819742101</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="2"/>
+      <c r="I18">
+        <v>6.7172068930003164</v>
+      </c>
+      <c r="J18" s="17">
+        <v>16.793017232500802</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000018</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>2.734</v>
+      </c>
+      <c r="B19" s="35">
+        <v>9.0073815683599108</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1.5540619819742105</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="I18">
-        <v>0.6216247927896843</v>
-      </c>
-      <c r="K18" s="22">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="2">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="B19" s="17">
-        <v>4.14871431638168</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="2"/>
+      <c r="I19">
+        <v>3.6029526273439654</v>
+      </c>
+      <c r="J19" s="35">
+        <v>9.0073815683599108</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999991</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="17">
-        <v>4.1487143163816773</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="I19">
-        <v>1.6594857265526712</v>
-      </c>
-      <c r="K19" s="22">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="2">
-        <v>5.0979999999999999</v>
-      </c>
-      <c r="B20" s="17">
-        <v>16.793017232500802</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="17">
-        <v>16.793017232500791</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5.0979999999999999</v>
-      </c>
-      <c r="I20">
-        <v>6.7172068930003164</v>
-      </c>
-      <c r="K20" s="22">
-        <v>11.13</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2">
-        <v>2.734</v>
-      </c>
-      <c r="B21" s="35">
-        <v>9.0073815683599108</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="35">
-        <v>9.0073815683599125</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2.734</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="I21">
-        <v>3.6029526273439654</v>
-      </c>
-      <c r="K21" s="22">
-        <v>5.97</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
-        <f t="shared" ref="A22:A32" si="0">B22/10</f>
         <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2"/>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2"/>
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2"/>
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G25" s="2"/>
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G26" s="2"/>
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G27" s="2"/>
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G28" s="2"/>
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2"/>
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
@@ -6240,79 +6044,48 @@
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B31" t="s">
         <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0.05</v>
       </c>
@@ -6327,7 +6100,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -6342,7 +6115,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -6357,7 +6130,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -6384,1349 +6157,1349 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" s="37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="4"/>
       <c r="G1" s="4"/>
       <c r="P1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6">
         <v>4.04</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E2" s="9">
         <f>C2/H$23</f>
         <v>5.077928607340372E-2</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G2" s="19">
         <f>E2*$H$24/24</f>
         <v>0.17984330484330482</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I2" s="19">
         <f>G2/$H$27</f>
         <v>3.5968660968660964</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K2">
         <v>89.09</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M2" s="29">
         <f>I2/K2*1000</f>
         <v>40.373398775015112</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R2" s="22">
         <v>9.4499999999999993</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6">
         <v>4.34</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E21" si="0">C3/H$23</f>
         <v>5.4550025138260426E-2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G3" s="19">
         <f t="shared" ref="G3:G21" si="1">E3*$H$24/24</f>
         <v>0.19319800569800569</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I21" si="2">G3/$H$27</f>
         <v>3.8639601139601134</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K3">
         <v>174.2</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M3" s="29">
         <f t="shared" ref="M3:M34" si="3">I3/K3*1000</f>
         <v>22.18117172192947</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="R3" s="22">
         <v>5.19</v>
       </c>
       <c r="S3" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
       </c>
       <c r="C4" s="6">
         <v>2.75</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>3.4565108094519861E-2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G4" s="19">
         <f t="shared" si="1"/>
         <v>0.12241809116809117</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I4" s="19">
         <f t="shared" si="2"/>
         <v>2.4483618233618234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K4">
         <v>132.12</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M4" s="29">
         <f t="shared" si="3"/>
         <v>18.531348950664725</v>
       </c>
       <c r="N4" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="R4" s="22">
         <v>4.34</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6">
         <v>3.62</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>4.5500251382604322E-2</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="1"/>
         <v>0.16114672364672364</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" si="2"/>
         <v>3.2229344729344724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K5">
         <v>133.1</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M5" s="29">
         <f t="shared" si="3"/>
         <v>24.214383718515947</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P5" s="20" t="s">
         <v>8</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R5" s="22">
         <v>5.67</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6">
         <v>1.32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>1.6591251885369532E-2</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G6" s="19">
         <f t="shared" si="1"/>
         <v>5.8760683760683767E-2</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="2"/>
         <v>1.1752136752136753</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K6">
         <v>121.16</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M6" s="29">
         <f t="shared" si="3"/>
         <v>9.6996836844971561</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R6" s="22">
         <v>2.27</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="6">
         <v>6.85</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>8.6098541980894921E-2</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" si="1"/>
         <v>0.30493233618233617</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" si="2"/>
         <v>6.0986467236467234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K7">
         <v>146.15</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M7" s="29">
         <f t="shared" si="3"/>
         <v>41.728680969187295</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R7" s="22">
         <v>9.76</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="6">
         <v>7.27</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>9.1377576671694313E-2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>0.32362891737891736</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="2"/>
         <v>6.4725783475783469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K8">
         <v>147.13</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M8" s="29">
         <f t="shared" si="3"/>
         <v>43.992240519121502</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="R8" s="22">
         <v>10.29</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6">
         <v>3.23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>4.05982905982906E-2</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G9" s="19">
         <f t="shared" si="1"/>
         <v>0.14378561253561253</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" si="2"/>
         <v>2.8757122507122506</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K9">
         <v>75.069999999999993</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M9" s="29">
         <f t="shared" si="3"/>
         <v>38.307076737874659</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="R9" s="22">
         <v>8.9600000000000009</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10" s="6">
         <v>2.29</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>2.8783308195072899E-2</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G10" s="19">
         <f t="shared" si="1"/>
         <v>0.10194088319088318</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="2"/>
         <v>2.0388176638176634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K10">
         <v>155.16</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M10" s="29">
         <f t="shared" si="3"/>
         <v>13.140098374694919</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="R10" s="22">
         <v>3.07</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C11" s="6">
         <v>3.76</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>4.7259929612870788E-2</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="1"/>
         <v>0.16737891737891739</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" si="2"/>
         <v>3.3475783475783474</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K11">
         <v>131.16999999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M11" s="29">
         <f t="shared" si="3"/>
         <v>25.520914443686419</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R11" s="22">
         <v>5.97</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C12" s="6">
         <v>7.01</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>8.8109602815485161E-2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G12" s="19">
         <f t="shared" si="1"/>
         <v>0.31205484330484329</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="2"/>
         <v>6.2410968660968651</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K12">
         <v>131.16999999999999</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M12" s="29">
         <f t="shared" si="3"/>
         <v>47.580215492085586</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R12" s="22">
         <v>11.13</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6">
         <v>5.35</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E13" s="9">
         <f>C13/H$23</f>
         <v>6.724484665661136E-2</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="1"/>
         <v>0.23815883190883191</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" si="2"/>
         <v>4.7631766381766383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K13">
         <v>146.19</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M13" s="29">
         <f t="shared" si="3"/>
         <v>32.582096163736495</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="R13" s="22">
         <v>7.62</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C14" s="6">
         <v>1.97</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>2.4761186525892407E-2</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="1"/>
         <v>8.7695868945868949E-2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" si="2"/>
         <v>1.753917378917379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K14">
         <v>149.21</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M14" s="29">
         <f t="shared" si="3"/>
         <v>11.754690563081422</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R14" s="22">
         <v>2.75</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C15" s="6">
         <v>3.83</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>4.8139768728004025E-2</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G15" s="19">
         <f t="shared" si="1"/>
         <v>0.17049501424501426</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" si="2"/>
         <v>3.4099002849002851</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K15">
         <v>165.19</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M15" s="29">
         <f t="shared" si="3"/>
         <v>20.642292420245081</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R15" s="22">
         <v>4.83</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C16" s="6">
         <v>5.59</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>7.0261437908496732E-2</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G16" s="19">
         <f t="shared" si="1"/>
         <v>0.24884259259259259</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I16" s="19">
         <f t="shared" si="2"/>
         <v>4.9768518518518512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K16">
         <v>115.13</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M16" s="29">
         <f t="shared" si="3"/>
         <v>43.228106070110762</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="R16" s="22">
         <v>10.119999999999999</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="6">
         <v>4.53</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>5.6938159879336349E-2</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G17" s="19">
         <f t="shared" si="1"/>
         <v>0.20165598290598288</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I17" s="19">
         <f t="shared" si="2"/>
         <v>4.0331196581196576</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K17">
         <v>105.09</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M17" s="29">
         <f t="shared" si="3"/>
         <v>38.377768180794149</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R17" s="22">
         <v>8.98</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C18" s="6">
         <v>3.45</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>4.3363499245852186E-2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="1"/>
         <v>0.15357905982905981</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I18" s="19">
         <f t="shared" si="2"/>
         <v>3.0715811965811959</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K18">
         <v>119.12</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M18" s="29">
         <f t="shared" si="3"/>
         <v>25.78560440380453</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="R18" s="22">
         <v>6.03</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="6">
         <v>1.01</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>1.269482151835093E-2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="1"/>
         <v>4.4960826210826206E-2</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I19" s="19">
         <f t="shared" si="2"/>
         <v>0.89921652421652409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K19">
         <v>204.22</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M19" s="29">
         <f>I19/K19*1000</f>
         <v>4.4031756155935957</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="R19" s="22">
         <v>1.03</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C20" s="6">
         <v>3.1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>3.8964303670186023E-2</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G20" s="19">
         <f t="shared" si="1"/>
         <v>0.1379985754985755</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I20" s="19">
         <f t="shared" si="2"/>
         <v>2.7599715099715096</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K20">
         <v>181.19</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M20" s="29">
         <f t="shared" si="3"/>
         <v>15.232471493854572</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="R20" s="22">
         <v>3.56</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C21" s="6">
         <v>4.25</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>5.3418803418803416E-2</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G21" s="19">
         <f t="shared" si="1"/>
         <v>0.18919159544159544</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I21" s="19">
         <f t="shared" si="2"/>
         <v>3.7838319088319086</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K21">
         <v>117.15</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M21" s="29">
         <f t="shared" si="3"/>
         <v>32.299034646452483</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R21" s="22">
         <v>7.56</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M22" s="29"/>
       <c r="N22" s="16"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H23">
         <f>SUM(C2:C21)</f>
         <v>79.56</v>
       </c>
       <c r="I23" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" t="s">
         <v>156</v>
-      </c>
-      <c r="J23" t="s">
-        <v>160</v>
       </c>
       <c r="M23" s="29"/>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="D24" s="18"/>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H24">
         <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M24" s="29"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="D25" s="18"/>
       <c r="G25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M25" s="29"/>
       <c r="N25" s="16"/>
       <c r="Y25" s="8"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="D26" s="18"/>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H26">
         <v>1.5</v>
       </c>
       <c r="I26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M26" s="29"/>
       <c r="N26" s="16"/>
       <c r="Y26" s="8"/>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="D27" s="18"/>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H27">
         <v>0.05</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M27" s="29"/>
       <c r="N27" s="16"/>
       <c r="Y27" s="8"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="D28" s="18"/>
       <c r="M28" s="29"/>
       <c r="N28" s="16"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="D29" s="18"/>
       <c r="M29" s="29"/>
       <c r="N29" s="16"/>
       <c r="Y29" s="8"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D30" s="18"/>
       <c r="M30" s="29"/>
       <c r="N30" s="16"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="1:25" ht="15">
+    <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="23">
         <v>1.5</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E31">
         <f>C31</f>
@@ -7741,31 +7514,31 @@
         <v>6.25E-2</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I31" s="19">
         <f>G31/$H$27</f>
         <v>1.25</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K31">
         <v>94.971400000000003</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M31" s="29">
         <f>I31/K31*1000</f>
         <v>13.16185714857315</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="D32" s="18"/>
       <c r="I32" s="19"/>
@@ -7774,12 +7547,12 @@
       <c r="N32" s="16"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" spans="2:25" ht="15">
+    <row r="33" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D33" s="18"/>
       <c r="I33" s="19"/>
@@ -7788,13 +7561,13 @@
       <c r="N33" s="16"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="2:25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5">
         <v>4.0179999999999998</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34" si="5">C34</f>
@@ -7809,31 +7582,31 @@
         <v>0.16741666666666666</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I34" s="19">
         <f t="shared" ref="I34" si="7">G34/$H$27</f>
         <v>3.3483333333333332</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K34">
         <v>18.04</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M34" s="29">
         <f t="shared" si="3"/>
         <v>185.60606060606059</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="2:25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="D35" s="18"/>
       <c r="I35" s="19"/>
       <c r="J35" s="7"/>
@@ -7841,15 +7614,15 @@
       <c r="N35" s="16"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="2:25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E36">
         <v>0.2</v>
@@ -7860,63 +7633,63 @@
       <c r="N36" s="16"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="2:25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="5">
         <v>385</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E37">
         <f>C37*$E$36</f>
         <v>77</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G37">
         <f>E37/24</f>
         <v>3.2083333333333335</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I37" s="19">
         <f>G37/$H$27</f>
         <v>64.166666666666671</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K37">
         <v>180.15600000000001</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M37" s="29">
         <f t="shared" ref="M37" si="8">I37/K37*1000</f>
         <v>356.17279838954391</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="2:25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="D38" s="18"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="2:25" ht="15">
+    <row r="39" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D39" s="23"/>
       <c r="Y39" s="8"/>
     </row>
-    <row r="40" spans="2:25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>22</v>
       </c>
@@ -7924,35 +7697,35 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E40" s="18">
         <f>C40/(C$40+C$41)*(1-C$42)</f>
         <v>0.33435294117647052</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G40">
         <f>E40*G$49*1000</f>
         <v>33.435294117647054</v>
       </c>
       <c r="H40" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K40" s="34">
         <f>G40/H$26</f>
         <v>22.290196078431368</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Y40" s="8"/>
     </row>
-    <row r="41" spans="2:25">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -7960,35 +7733,35 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E41" s="18">
         <f>C41/(C$40+C$41)*(1-C$42)</f>
         <v>0.64564705882352935</v>
       </c>
       <c r="F41" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G41">
         <f t="shared" ref="G41:G42" si="9">E41*G$49*1000</f>
         <v>64.564705882352939</v>
       </c>
       <c r="H41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K41" s="34">
         <f t="shared" ref="K41:K42" si="10">G41/H$26</f>
         <v>43.043137254901957</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Y41" s="8"/>
     </row>
-    <row r="42" spans="2:25">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>26</v>
       </c>
@@ -7996,35 +7769,35 @@
         <v>0.02</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E42" s="18">
         <f>C42</f>
         <v>0.02</v>
       </c>
       <c r="F42" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G42">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K42" s="34">
         <f t="shared" si="10"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Y42" s="8"/>
     </row>
-    <row r="43" spans="2:25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -8033,140 +7806,140 @@
         <v>16700000000</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E43">
         <f>C43*$G$45</f>
         <v>2.3379999999999998E-2</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G43">
         <f>E43*$G$44*1000</f>
         <v>24.548999999999999</v>
       </c>
       <c r="H43" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I43">
         <f>G43*$G$46</f>
         <v>9.8196000000000012</v>
       </c>
       <c r="J43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K43" s="34">
         <f>I43/H$26</f>
         <v>6.5464000000000011</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O43" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Y43" s="8"/>
     </row>
-    <row r="44" spans="2:25">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="D44" s="18"/>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G44" s="32">
         <v>1.05</v>
       </c>
       <c r="H44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I44" s="31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y44" s="8"/>
     </row>
-    <row r="45" spans="2:25" ht="15">
+    <row r="45" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="23"/>
       <c r="D45" s="18"/>
       <c r="F45" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G45">
         <f>1.4*10^(-12)</f>
         <v>1.3999999999999999E-12</v>
       </c>
       <c r="H45" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J45" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="2:25">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="24"/>
       <c r="D46" s="18"/>
       <c r="F46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G46" s="32">
         <v>0.4</v>
       </c>
       <c r="H46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y46" s="8"/>
     </row>
-    <row r="47" spans="2:25" ht="15">
+    <row r="47" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="23"/>
       <c r="F47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G47">
         <v>0.2</v>
       </c>
       <c r="H47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Y47" s="8"/>
     </row>
-    <row r="48" spans="2:25">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G48" s="32">
         <v>0.3</v>
       </c>
       <c r="H48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G49">
         <v>0.1</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -8174,8 +7947,8 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C33" r:id="rId1"/>
-    <hyperlink ref="I45" r:id="rId2"/>
+    <hyperlink ref="C33" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I45" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8188,44 +7961,44 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
         <v>140</v>
       </c>
-      <c r="F1" t="s">
-        <v>144</v>
-      </c>
       <c r="G1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>2000</v>
@@ -8245,9 +8018,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="10">
         <v>1000</v>
@@ -8268,9 +8041,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4" s="10">
         <v>1500</v>
@@ -8288,9 +8061,9 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B5" s="10">
         <v>200</v>
@@ -8312,9 +8085,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" s="10">
         <v>1500</v>
@@ -8336,9 +8109,9 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="10">
         <v>1000</v>
@@ -8356,9 +8129,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B8" s="10">
         <v>1800</v>
@@ -8380,12 +8153,12 @@
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B9" s="10">
         <v>200</v>
@@ -8399,9 +8172,9 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" ref="B10:D10" si="3">SUM(B2:B9)</f>
@@ -8416,64 +8189,64 @@
         <v>0.38333333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C13" s="13">
         <f>D9+F8</f>
         <v>4.5833333333333337E-2</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E13">
         <v>0.02</v>
       </c>
       <c r="F13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C16">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C18">
         <f>E13*C16</f>
         <v>0.6</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/COM-dFBA/Scripts/paramTables.xlsx
+++ b/COM-dFBA/Scripts/paramTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zorrilla\Desktop\COM-dFBA\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3FA97F8F-C43E-4892-B529-C2EF08B2C542}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0D76B7D-7D31-49DE-986B-448CED432177}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vmax" sheetId="1" r:id="rId1"/>
@@ -936,10 +936,10 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1141,7 +1141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1193,7 +1193,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1397,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
@@ -5315,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22.2901960784314</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>43.043137254902</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.3333333333333299</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="35">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5493,7 +5493,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>10</v>
       </c>
       <c r="B8" s="17">
@@ -5519,7 +5519,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>20</v>
       </c>
       <c r="B9" s="17">
@@ -5544,7 +5544,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>4.4710000000000001</v>
       </c>
       <c r="B10" s="17">
@@ -5570,7 +5570,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>1.4079999999999999</v>
       </c>
       <c r="B11" s="35">
@@ -5596,7 +5596,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>3.4910000000000001</v>
       </c>
       <c r="B12" s="17">
@@ -5623,7 +5623,7 @@
       <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>2.2120000000000002</v>
       </c>
       <c r="B13" s="17">
@@ -5650,7 +5650,7 @@
       <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>3.4609999999999999</v>
       </c>
       <c r="B14" s="17">
@@ -5677,7 +5677,7 @@
       <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>2.7629999999999999</v>
       </c>
       <c r="B15" s="17">
@@ -5704,7 +5704,7 @@
       <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>0.47199999999999998</v>
       </c>
       <c r="B16" s="17">
@@ -5731,7 +5731,7 @@
       <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>1.2589999999999999</v>
       </c>
       <c r="B17" s="17">
@@ -5758,7 +5758,7 @@
       <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>5.0979999999999999</v>
       </c>
       <c r="B18" s="17">
@@ -5785,7 +5785,7 @@
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>2.734</v>
       </c>
       <c r="B19" s="35">
@@ -6179,10 +6179,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="4"/>
       <c r="G1" s="4"/>
       <c r="P1" t="s">
